--- a/Spreadsheets/Mann-Kendall_08Jan2021.xlsx
+++ b/Spreadsheets/Mann-Kendall_08Jan2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Noah Germolus\Documents\Job Stuff\CDOM NSF project\Mississippi_Color\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BB9B55-19F4-4563-8F47-3B819F006922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D30CE5-9D22-4F0D-A702-25DD73743AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3111" windowWidth="21943" windowHeight="8649" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10yr" sheetId="1" r:id="rId1"/>
@@ -1952,9 +1952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM59"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2978,11 +2978,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="T6" s="14">
-        <v>-1094.12601626016</v>
+        <v>-30.9821475772358</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="4"/>
-        <v>-10941.2601626016</v>
+        <v>-309.82147577235799</v>
       </c>
       <c r="V6" s="9" t="s">
         <v>0</v>
@@ -3082,11 +3082,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="AZ6" s="14">
-        <v>-402.820936639119</v>
+        <v>-11.4065998986226</v>
       </c>
       <c r="BA6" s="14">
         <f t="shared" si="12"/>
-        <v>-4028.2093663911901</v>
+        <v>-114.06599898622601</v>
       </c>
       <c r="BB6" s="9" t="s">
         <v>0</v>
@@ -3108,11 +3108,11 @@
         <v>3.9668670463066699E-2</v>
       </c>
       <c r="BH6" s="14">
-        <v>-240</v>
+        <v>-6.7960320000000003</v>
       </c>
       <c r="BI6" s="14">
         <f t="shared" si="14"/>
-        <v>-2400</v>
+        <v>-67.960319999999996</v>
       </c>
       <c r="BJ6" s="9" t="s">
         <v>0</v>
@@ -3217,11 +3217,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="AB7" s="14">
-        <v>-542</v>
+        <v>-15.347705599999999</v>
       </c>
       <c r="AC7" s="14">
         <f t="shared" si="6"/>
-        <v>-5420</v>
+        <v>-153.477056</v>
       </c>
       <c r="AD7" s="9" t="s">
         <v>0</v>
@@ -3295,11 +3295,11 @@
         <v>1.2821837418053299E-3</v>
       </c>
       <c r="AZ7" s="14">
-        <v>-486.092286501378</v>
+        <v>-13.764578058402201</v>
       </c>
       <c r="BA7" s="14">
         <f t="shared" si="12"/>
-        <v>-4860.9228650137802</v>
+        <v>-137.64578058402202</v>
       </c>
       <c r="BB7" s="9" t="s">
         <v>1</v>
@@ -3308,11 +3308,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="BD7" s="14">
-        <v>-681.25</v>
+        <v>-19.29082</v>
       </c>
       <c r="BE7" s="14">
         <f t="shared" si="13"/>
-        <v>-6812.5</v>
+        <v>-192.90819999999999</v>
       </c>
       <c r="BF7" s="9" t="s">
         <v>1</v>
@@ -3321,11 +3321,11 @@
         <v>2.3575275957954402E-3</v>
       </c>
       <c r="BH7" s="14">
-        <v>-275</v>
+        <v>-7.7871199999999998</v>
       </c>
       <c r="BI7" s="14">
         <f t="shared" si="14"/>
-        <v>-2750</v>
+        <v>-77.871200000000002</v>
       </c>
       <c r="BJ7" s="9" t="s">
         <v>0</v>
@@ -3404,11 +3404,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="T8" s="14">
-        <v>-1271.6169828365</v>
+        <v>-36.008123779584501</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="4"/>
-        <v>-12716.169828365</v>
+        <v>-360.08123779584503</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>0</v>
@@ -3430,11 +3430,11 @@
         <v>4.2075512854917703E-3</v>
       </c>
       <c r="AB8" s="14">
-        <v>-580</v>
+        <v>-16.423743999999999</v>
       </c>
       <c r="AC8" s="14">
         <f t="shared" si="6"/>
-        <v>-5800</v>
+        <v>-164.23743999999999</v>
       </c>
       <c r="AD8" s="9" t="s">
         <v>0</v>
@@ -3508,11 +3508,11 @@
         <v>1.2821837418053299E-3</v>
       </c>
       <c r="AZ8" s="14">
-        <v>-411.77430145611999</v>
+        <v>-11.6601305394727</v>
       </c>
       <c r="BA8" s="14">
         <f t="shared" si="12"/>
-        <v>-4117.7430145611997</v>
+        <v>-116.60130539472701</v>
       </c>
       <c r="BB8" s="9" t="s">
         <v>1</v>
@@ -3521,11 +3521,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="BD8" s="14">
-        <v>-590</v>
+        <v>-16.706911999999999</v>
       </c>
       <c r="BE8" s="14">
         <f t="shared" si="13"/>
-        <v>-5900</v>
+        <v>-167.06912</v>
       </c>
       <c r="BF8" s="9" t="s">
         <v>1</v>
@@ -3534,11 +3534,11 @@
         <v>2.3575275957954402E-3</v>
       </c>
       <c r="BH8" s="14">
-        <v>-205</v>
+        <v>-5.8049439999999999</v>
       </c>
       <c r="BI8" s="14">
         <f t="shared" si="14"/>
-        <v>-2050</v>
+        <v>-58.049439999999997</v>
       </c>
       <c r="BJ8" s="9" t="s">
         <v>0</v>
@@ -3643,11 +3643,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="AB9" s="14">
-        <v>-491.11111111111097</v>
+        <v>-13.9066951111111</v>
       </c>
       <c r="AC9" s="14">
         <f t="shared" si="6"/>
-        <v>-4911.1111111111095</v>
+        <v>-139.066951111111</v>
       </c>
       <c r="AD9" s="9" t="s">
         <v>0</v>
@@ -3721,11 +3721,11 @@
         <v>7.2903580915355502E-3</v>
       </c>
       <c r="AZ9" s="14">
-        <v>-268.72916666666703</v>
+        <v>-7.6095500666666798</v>
       </c>
       <c r="BA9" s="14">
         <f t="shared" si="12"/>
-        <v>-2687.2916666666702</v>
+        <v>-76.095500666666794</v>
       </c>
       <c r="BB9" s="9" t="s">
         <v>0</v>
@@ -3747,11 +3747,11 @@
         <v>7.2903580915355502E-3</v>
       </c>
       <c r="BH9" s="14">
-        <v>-200</v>
+        <v>-5.6633599999999999</v>
       </c>
       <c r="BI9" s="14">
         <f t="shared" si="14"/>
-        <v>-2000</v>
+        <v>-56.633600000000001</v>
       </c>
       <c r="BJ9" s="9" t="s">
         <v>0</v>
@@ -3934,11 +3934,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AZ10" s="14">
-        <v>-214.27685950413201</v>
+        <v>-6.0676349752066097</v>
       </c>
       <c r="BA10" s="14">
         <f t="shared" si="12"/>
-        <v>-2142.7685950413202</v>
+        <v>-60.676349752066095</v>
       </c>
       <c r="BB10" s="9" t="s">
         <v>0</v>
@@ -4682,11 +4682,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="T14" s="14">
-        <v>772.98102981029797</v>
+        <v>21.888349224932298</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>7729.8102981029797</v>
+        <v>218.88349224932298</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>0</v>
@@ -4999,11 +4999,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="AZ15" s="14">
-        <v>297.972222222222</v>
+        <v>8.4376198222222101</v>
       </c>
       <c r="BA15" s="14">
         <f t="shared" si="12"/>
-        <v>2979.7222222222199</v>
+        <v>84.376198222222101</v>
       </c>
       <c r="BB15" s="9" t="s">
         <v>2</v>
@@ -5012,11 +5012,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="BD15" s="14">
-        <v>1150</v>
+        <v>32.564320000000002</v>
       </c>
       <c r="BE15" s="14">
         <f t="shared" si="13"/>
-        <v>11500</v>
+        <v>325.64320000000004</v>
       </c>
       <c r="BF15" s="9" t="s">
         <v>0</v>
@@ -5038,11 +5038,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="BL15" s="14">
-        <v>187.47273978255501</v>
+        <v>5.3086280778746602</v>
       </c>
       <c r="BM15" s="14">
         <f t="shared" si="15"/>
-        <v>1874.72739782555</v>
+        <v>53.086280778746598</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.4">
@@ -5212,11 +5212,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AZ16" s="14">
-        <v>326.012396694215</v>
+        <v>9.2316278347107303</v>
       </c>
       <c r="BA16" s="14">
         <f t="shared" si="12"/>
-        <v>3260.1239669421502</v>
+        <v>92.3162783471073</v>
       </c>
       <c r="BB16" s="9" t="s">
         <v>2</v>
@@ -5225,11 +5225,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="BD16" s="14">
-        <v>750</v>
+        <v>21.2376</v>
       </c>
       <c r="BE16" s="14">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>212.376</v>
       </c>
       <c r="BF16" s="9" t="s">
         <v>0</v>
@@ -5251,11 +5251,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="BL16" s="14">
-        <v>108.143102859276</v>
+        <v>3.06226661504554</v>
       </c>
       <c r="BM16" s="14">
         <f t="shared" si="15"/>
-        <v>1081.43102859276</v>
+        <v>30.622666150455402</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.4">
@@ -5425,11 +5425,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="AZ17" s="14">
-        <v>345.97619047619003</v>
+        <v>9.7969385904761896</v>
       </c>
       <c r="BA17" s="14">
         <f t="shared" si="12"/>
-        <v>3459.7619047619</v>
+        <v>97.969385904761893</v>
       </c>
       <c r="BB17" s="9" t="s">
         <v>2</v>
@@ -5438,11 +5438,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="BD17" s="14">
-        <v>790</v>
+        <v>22.370272</v>
       </c>
       <c r="BE17" s="14">
         <f t="shared" si="13"/>
-        <v>7900</v>
+        <v>223.70272</v>
       </c>
       <c r="BF17" s="9" t="s">
         <v>2</v>
@@ -5451,11 +5451,11 @@
         <v>3.9668670463066699E-2</v>
       </c>
       <c r="BH17" s="14">
-        <v>257.142857142857</v>
+        <v>7.2814628571428601</v>
       </c>
       <c r="BI17" s="14">
         <f t="shared" si="14"/>
-        <v>2571.4285714285697</v>
+        <v>72.814628571428599</v>
       </c>
       <c r="BJ17" s="9" t="s">
         <v>0</v>
@@ -5638,11 +5638,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="AZ18" s="14">
-        <v>377.66666666666703</v>
+        <v>10.6943114666668</v>
       </c>
       <c r="BA18" s="14">
         <f t="shared" si="12"/>
-        <v>3776.6666666666702</v>
+        <v>106.94311466666801</v>
       </c>
       <c r="BB18" s="9" t="s">
         <v>2</v>
@@ -5651,11 +5651,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="BD18" s="14">
-        <v>1233.3333333333301</v>
+        <v>34.924053333333298</v>
       </c>
       <c r="BE18" s="14">
         <f t="shared" si="13"/>
-        <v>12333.333333333301</v>
+        <v>349.24053333333296</v>
       </c>
       <c r="BF18" s="9" t="s">
         <v>0</v>
@@ -5851,11 +5851,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AZ19" s="14">
-        <v>441.65247933884302</v>
+        <v>12.506184926942099</v>
       </c>
       <c r="BA19" s="14">
         <f t="shared" si="12"/>
-        <v>4416.5247933884302</v>
+        <v>125.06184926942099</v>
       </c>
       <c r="BB19" s="9" t="s">
         <v>2</v>
@@ -5864,11 +5864,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="BD19" s="14">
-        <v>1344.44444444444</v>
+        <v>38.070364444444401</v>
       </c>
       <c r="BE19" s="14">
         <f t="shared" si="13"/>
-        <v>13444.4444444444</v>
+        <v>380.70364444444402</v>
       </c>
       <c r="BF19" s="9" t="s">
         <v>2</v>
@@ -5877,11 +5877,11 @@
         <v>3.9668670463066699E-2</v>
       </c>
       <c r="BH19" s="14">
-        <v>250</v>
+        <v>7.0792000000000002</v>
       </c>
       <c r="BI19" s="14">
         <f t="shared" si="14"/>
-        <v>2500</v>
+        <v>70.792000000000002</v>
       </c>
       <c r="BJ19" s="9" t="s">
         <v>0</v>
@@ -6090,11 +6090,11 @@
         <v>1.5737222266311E-2</v>
       </c>
       <c r="BH20" s="14">
-        <v>266.66666666666703</v>
+        <v>7.5511466666666696</v>
       </c>
       <c r="BI20" s="14">
         <f t="shared" si="14"/>
-        <v>2666.6666666666702</v>
+        <v>75.511466666666692</v>
       </c>
       <c r="BJ20" s="9" t="s">
         <v>0</v>
@@ -6303,11 +6303,11 @@
         <v>3.9668670463066699E-2</v>
       </c>
       <c r="BH21" s="14">
-        <v>220</v>
+        <v>6.2296959999999997</v>
       </c>
       <c r="BI21" s="14">
         <f t="shared" si="14"/>
-        <v>2200</v>
+        <v>62.296959999999999</v>
       </c>
       <c r="BJ21" s="9" t="s">
         <v>0</v>
@@ -7555,11 +7555,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="AZ27" s="14">
-        <v>-545.01666666666699</v>
+        <v>-15.4331279466667</v>
       </c>
       <c r="BA27" s="14">
         <f t="shared" si="12"/>
-        <v>-5450.1666666666697</v>
+        <v>-154.33127946666698</v>
       </c>
       <c r="BB27" s="9" t="s">
         <v>1</v>
@@ -7568,11 +7568,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="BD27" s="14">
-        <v>-1314.2857142857099</v>
+        <v>-37.216365714285701</v>
       </c>
       <c r="BE27" s="14">
         <f t="shared" si="13"/>
-        <v>-13142.857142857099</v>
+        <v>-372.16365714285701</v>
       </c>
       <c r="BF27" s="9" t="s">
         <v>0</v>
@@ -7768,11 +7768,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AZ28" s="14">
-        <v>-345.75</v>
+        <v>-9.7905336000000602</v>
       </c>
       <c r="BA28" s="14">
         <f t="shared" si="12"/>
-        <v>-3457.5</v>
+        <v>-97.905336000000602</v>
       </c>
       <c r="BB28" s="9" t="s">
         <v>0</v>
@@ -8433,11 +8433,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="BH31" s="14">
-        <v>394.28571428571399</v>
+        <v>11.164909714285701</v>
       </c>
       <c r="BI31" s="14">
         <f t="shared" si="14"/>
-        <v>3942.8571428571399</v>
+        <v>111.649097142857</v>
       </c>
       <c r="BJ31" s="9" t="s">
         <v>0</v>
@@ -8516,11 +8516,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="T32" s="14">
-        <v>1549.35365853659</v>
+        <v>43.8727376780488</v>
       </c>
       <c r="U32" s="14">
         <f t="shared" si="4"/>
-        <v>15493.5365853659</v>
+        <v>438.72737678048799</v>
       </c>
       <c r="V32" s="9" t="s">
         <v>2</v>
@@ -8529,11 +8529,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="X32" s="14">
-        <v>3666.6666666666702</v>
+        <v>103.82826666666701</v>
       </c>
       <c r="Y32" s="14">
         <f t="shared" si="5"/>
-        <v>36666.666666666701</v>
+        <v>1038.2826666666701</v>
       </c>
       <c r="Z32" s="9" t="s">
         <v>0</v>
@@ -8555,11 +8555,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="AF32" s="14">
-        <v>694.01514373176201</v>
+        <v>19.652288022023502</v>
       </c>
       <c r="AG32" s="14">
         <f t="shared" si="7"/>
-        <v>6940.1514373176196</v>
+        <v>196.52288022023501</v>
       </c>
       <c r="AH32" s="9" t="s">
         <v>0</v>
@@ -8620,11 +8620,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="AZ32" s="14">
-        <v>542.58333333333303</v>
+        <v>15.364223733333301</v>
       </c>
       <c r="BA32" s="14">
         <f t="shared" si="12"/>
-        <v>5425.8333333333303</v>
+        <v>153.64223733333301</v>
       </c>
       <c r="BB32" s="9" t="s">
         <v>0</v>
@@ -8646,11 +8646,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="BH32" s="14">
-        <v>402.11111111111097</v>
+        <v>11.3864999111111</v>
       </c>
       <c r="BI32" s="14">
         <f t="shared" si="14"/>
-        <v>4021.1111111111095</v>
+        <v>113.864999111111</v>
       </c>
       <c r="BJ32" s="9" t="s">
         <v>0</v>
@@ -8729,11 +8729,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="T33" s="14">
-        <v>1795.19308943089</v>
+        <v>50.8341236747968</v>
       </c>
       <c r="U33" s="14">
         <f t="shared" si="4"/>
-        <v>17951.930894308902</v>
+        <v>508.34123674796797</v>
       </c>
       <c r="V33" s="9" t="s">
         <v>2</v>
@@ -8742,11 +8742,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="X33" s="14">
-        <v>4006.25</v>
+        <v>113.44418</v>
       </c>
       <c r="Y33" s="14">
         <f t="shared" si="5"/>
-        <v>40062.5</v>
+        <v>1134.4418000000001</v>
       </c>
       <c r="Z33" s="9" t="s">
         <v>0</v>
@@ -8768,11 +8768,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AF33" s="14">
-        <v>736.90749074678797</v>
+        <v>20.866862033978698</v>
       </c>
       <c r="AG33" s="14">
         <f t="shared" si="7"/>
-        <v>7369.0749074678797</v>
+        <v>208.66862033978697</v>
       </c>
       <c r="AH33" s="9" t="s">
         <v>0</v>
@@ -8833,11 +8833,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AZ33" s="14">
-        <v>493.47916666666703</v>
+        <v>13.973750866666601</v>
       </c>
       <c r="BA33" s="14">
         <f t="shared" si="12"/>
-        <v>4934.7916666666706</v>
+        <v>139.737508666666</v>
       </c>
       <c r="BB33" s="9" t="s">
         <v>0</v>
@@ -8859,11 +8859,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="BH33" s="14">
-        <v>426.25</v>
+        <v>12.070036</v>
       </c>
       <c r="BI33" s="14">
         <f t="shared" si="14"/>
-        <v>4262.5</v>
+        <v>120.70036</v>
       </c>
       <c r="BJ33" s="9" t="s">
         <v>0</v>
@@ -9698,11 +9698,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="BD37" s="14">
-        <v>-1070</v>
+        <v>-30.298976</v>
       </c>
       <c r="BE37" s="14">
         <f t="shared" si="13"/>
-        <v>-10700</v>
+        <v>-302.98975999999999</v>
       </c>
       <c r="BF37" s="9" t="s">
         <v>0</v>
@@ -9724,11 +9724,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="BL37" s="14">
-        <v>-281.96103619344001</v>
+        <v>-7.9842342696823998</v>
       </c>
       <c r="BM37" s="14">
         <f t="shared" si="15"/>
-        <v>-2819.6103619344003</v>
+        <v>-79.842342696824005</v>
       </c>
     </row>
     <row r="38" spans="1:65" x14ac:dyDescent="0.4">
@@ -9911,11 +9911,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="BD38" s="14">
-        <v>-1168.75</v>
+        <v>-33.095260000000003</v>
       </c>
       <c r="BE38" s="14">
         <f t="shared" si="13"/>
-        <v>-11687.5</v>
+        <v>-330.95260000000002</v>
       </c>
       <c r="BF38" s="9" t="s">
         <v>0</v>
@@ -10859,11 +10859,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="T43" s="14">
-        <v>1003.21718931475</v>
+        <v>28.4079005063879</v>
       </c>
       <c r="U43" s="14">
         <f t="shared" si="4"/>
-        <v>10032.171893147501</v>
+        <v>284.07900506387898</v>
       </c>
       <c r="V43" s="9" t="s">
         <v>2</v>
@@ -10872,11 +10872,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="X43" s="14">
-        <v>2330</v>
+        <v>65.978144</v>
       </c>
       <c r="Y43" s="14">
         <f t="shared" si="5"/>
-        <v>23300</v>
+        <v>659.78143999999998</v>
       </c>
       <c r="Z43" s="9" t="s">
         <v>2</v>
@@ -10885,11 +10885,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="AB43" s="14">
-        <v>402</v>
+        <v>11.3833536</v>
       </c>
       <c r="AC43" s="14">
         <f t="shared" si="6"/>
-        <v>4020</v>
+        <v>113.833536</v>
       </c>
       <c r="AD43" s="9" t="s">
         <v>2</v>
@@ -10898,11 +10898,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AF43" s="14">
-        <v>479.732183610628</v>
+        <v>13.584480296865401</v>
       </c>
       <c r="AG43" s="14">
         <f t="shared" si="7"/>
-        <v>4797.32183610628</v>
+        <v>135.84480296865399</v>
       </c>
       <c r="AH43" s="9" t="s">
         <v>0</v>
@@ -10963,11 +10963,11 @@
         <v>4.2075512854917703E-3</v>
       </c>
       <c r="AZ43" s="14">
-        <v>612.59641873278201</v>
+        <v>17.346770269972399</v>
       </c>
       <c r="BA43" s="14">
         <f t="shared" si="12"/>
-        <v>6125.9641873278197</v>
+        <v>173.46770269972399</v>
       </c>
       <c r="BB43" s="9" t="s">
         <v>2</v>
@@ -10976,11 +10976,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="BD43" s="14">
-        <v>970</v>
+        <v>27.467296000000001</v>
       </c>
       <c r="BE43" s="14">
         <f t="shared" si="13"/>
-        <v>9700</v>
+        <v>274.67295999999999</v>
       </c>
       <c r="BF43" s="9" t="s">
         <v>2</v>
@@ -10989,11 +10989,11 @@
         <v>4.2075512854917703E-3</v>
       </c>
       <c r="BH43" s="14">
-        <v>313.33333333333297</v>
+        <v>8.8725973333333403</v>
       </c>
       <c r="BI43" s="14">
         <f t="shared" si="14"/>
-        <v>3133.3333333333298</v>
+        <v>88.7259733333334</v>
       </c>
       <c r="BJ43" s="9" t="s">
         <v>0</v>
@@ -11072,11 +11072,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="T44" s="14">
-        <v>906.544715447155</v>
+        <v>25.670445398374099</v>
       </c>
       <c r="U44" s="14">
         <f t="shared" si="4"/>
-        <v>9065.4471544715507</v>
+        <v>256.70445398374102</v>
       </c>
       <c r="V44" s="9" t="s">
         <v>2</v>
@@ -11085,11 +11085,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="X44" s="14">
-        <v>1828.57142857143</v>
+        <v>51.779291428571398</v>
       </c>
       <c r="Y44" s="14">
         <f t="shared" si="5"/>
-        <v>18285.714285714301</v>
+        <v>517.79291428571401</v>
       </c>
       <c r="Z44" s="9" t="s">
         <v>2</v>
@@ -11098,11 +11098,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AB44" s="14">
-        <v>467</v>
+        <v>13.2239456</v>
       </c>
       <c r="AC44" s="14">
         <f t="shared" si="6"/>
-        <v>4670</v>
+        <v>132.23945600000002</v>
       </c>
       <c r="AD44" s="9" t="s">
         <v>0</v>
@@ -11176,11 +11176,11 @@
         <v>2.3575275957954402E-3</v>
       </c>
       <c r="AZ44" s="14">
-        <v>612.59641873278201</v>
+        <v>17.346770269972399</v>
       </c>
       <c r="BA44" s="14">
         <f t="shared" si="12"/>
-        <v>6125.9641873278197</v>
+        <v>173.46770269972399</v>
       </c>
       <c r="BB44" s="9" t="s">
         <v>0</v>
@@ -11202,11 +11202,11 @@
         <v>2.3575275957954402E-3</v>
       </c>
       <c r="BH44" s="14">
-        <v>345</v>
+        <v>9.7692960000000006</v>
       </c>
       <c r="BI44" s="14">
         <f t="shared" si="14"/>
-        <v>3450</v>
+        <v>97.692959999999999</v>
       </c>
       <c r="BJ44" s="9" t="s">
         <v>0</v>
@@ -11389,11 +11389,11 @@
         <v>7.2903580915355502E-3</v>
       </c>
       <c r="AZ45" s="14">
-        <v>537.91666666666697</v>
+        <v>15.2320786666667</v>
       </c>
       <c r="BA45" s="14">
         <f t="shared" si="12"/>
-        <v>5379.1666666666697</v>
+        <v>152.320786666667</v>
       </c>
       <c r="BB45" s="9" t="s">
         <v>0</v>
@@ -11415,11 +11415,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="BH45" s="14">
-        <v>306.25</v>
+        <v>8.6720199999999998</v>
       </c>
       <c r="BI45" s="14">
         <f t="shared" si="14"/>
-        <v>3062.5</v>
+        <v>86.720200000000006</v>
       </c>
       <c r="BJ45" s="9" t="s">
         <v>0</v>
@@ -11602,11 +11602,11 @@
         <v>4.9097981609265602E-2</v>
       </c>
       <c r="AZ46" s="14">
-        <v>306.46296296296299</v>
+        <v>8.6780504296296304</v>
       </c>
       <c r="BA46" s="14">
         <f t="shared" si="12"/>
-        <v>3064.62962962963</v>
+        <v>86.7805042962963</v>
       </c>
       <c r="BB46" s="9" t="s">
         <v>0</v>
@@ -12454,11 +12454,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="AZ50" s="14">
-        <v>-304.75</v>
+        <v>-8.6295448000000192</v>
       </c>
       <c r="BA50" s="14">
         <f t="shared" si="12"/>
-        <v>-3047.5</v>
+        <v>-86.295448000000192</v>
       </c>
       <c r="BB50" s="9" t="s">
         <v>0</v>
@@ -12667,11 +12667,11 @@
         <v>7.2903580915355502E-3</v>
       </c>
       <c r="AZ51" s="14">
-        <v>-320.22916666666703</v>
+        <v>-9.0678652666666704</v>
       </c>
       <c r="BA51" s="14">
         <f t="shared" si="12"/>
-        <v>-3202.2916666666702</v>
+        <v>-90.678652666666707</v>
       </c>
       <c r="BB51" s="9" t="s">
         <v>0</v>
@@ -13015,11 +13015,11 @@
         <v>3.1823127386490201E-2</v>
       </c>
       <c r="AB53" s="14">
-        <v>-400</v>
+        <v>-11.32672</v>
       </c>
       <c r="AC53" s="14">
         <f t="shared" si="6"/>
-        <v>-4000</v>
+        <v>-113.2672</v>
       </c>
       <c r="AD53" s="9" t="s">
         <v>0</v>
@@ -13228,11 +13228,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="AB54" s="14">
-        <v>-380</v>
+        <v>-10.760384</v>
       </c>
       <c r="AC54" s="14">
         <f t="shared" si="6"/>
-        <v>-3800</v>
+        <v>-107.60384000000001</v>
       </c>
       <c r="AD54" s="9" t="s">
         <v>0</v>
@@ -13441,11 +13441,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="AB55" s="14">
-        <v>-400</v>
+        <v>-11.32672</v>
       </c>
       <c r="AC55" s="14">
         <f t="shared" si="6"/>
-        <v>-4000</v>
+        <v>-113.2672</v>
       </c>
       <c r="AD55" s="9" t="s">
         <v>0</v>
@@ -13841,11 +13841,11 @@
         <v>2.0044668622627399E-2</v>
       </c>
       <c r="T57" s="15">
-        <v>-985.79945799458005</v>
+        <v>-27.914686092140901</v>
       </c>
       <c r="U57" s="15">
         <f t="shared" si="4"/>
-        <v>-9857.9945799458001</v>
+        <v>-279.14686092140903</v>
       </c>
       <c r="V57" s="10" t="s">
         <v>1</v>
@@ -13854,11 +13854,11 @@
         <v>1.22660613862129E-2</v>
       </c>
       <c r="X57" s="15">
-        <v>-2150</v>
+        <v>-60.881120000000003</v>
       </c>
       <c r="Y57" s="15">
         <f t="shared" si="5"/>
-        <v>-21500</v>
+        <v>-608.81119999999999</v>
       </c>
       <c r="Z57" s="10" t="s">
         <v>0</v>
@@ -14031,8 +14031,8 @@
         <v>-0.47060000000000002</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.7060000000000004</v>
+        <f>IF(ISNUMBER(L58), (L58*64),0)</f>
+        <v>-30.118400000000001</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>1</v>
@@ -14207,22 +14207,22 @@
     <row r="59" spans="1:65" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="BJ1:BM1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B57">
     <cfRule type="containsText" dxfId="79" priority="172" operator="containsText" text="N">
@@ -14927,9 +14927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H4" sqref="H4"/>
+      <selection pane="topRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15830,7 +15830,7 @@
         <v>4.0954544320382903E-2</v>
       </c>
       <c r="V7" s="11">
-        <v>-189.35661764705901</v>
+        <v>-5.3619734705882403</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>2.12482443879278E-2</v>
       </c>
       <c r="AW9" s="11">
-        <v>85.033055864462597</v>
+        <v>2.4078640363028199</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.4">
@@ -16331,7 +16331,7 @@
         <v>1.0374262567202299E-2</v>
       </c>
       <c r="AN10" s="11">
-        <v>237.31448412698401</v>
+        <v>6.7199867841269798</v>
       </c>
       <c r="AO10" s="9" t="s">
         <v>2</v>
@@ -16340,7 +16340,7 @@
         <v>1.2482226584454199E-2</v>
       </c>
       <c r="AQ10" s="11">
-        <v>473.33333333333297</v>
+        <v>13.403285333333301</v>
       </c>
       <c r="AR10" s="9" t="s">
         <v>2</v>
@@ -16349,7 +16349,7 @@
         <v>4.0954544320382903E-2</v>
       </c>
       <c r="AT10" s="11">
-        <v>108.571428571429</v>
+        <v>3.0743954285714299</v>
       </c>
       <c r="AU10" s="9" t="s">
         <v>2</v>
@@ -16358,7 +16358,7 @@
         <v>8.5891792458101506E-3</v>
       </c>
       <c r="AW10" s="11">
-        <v>107.213832827242</v>
+        <v>3.0359526614024301</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.4">
@@ -16480,7 +16480,7 @@
         <v>3.1528368355193698E-3</v>
       </c>
       <c r="AN11" s="11">
-        <v>245.5625</v>
+        <v>6.9535442000000103</v>
       </c>
       <c r="AO11" s="9" t="s">
         <v>2</v>
@@ -16489,7 +16489,7 @@
         <v>7.0838696727555401E-3</v>
       </c>
       <c r="AQ11" s="11">
-        <v>430.95238095238102</v>
+        <v>12.2031923809524</v>
       </c>
       <c r="AR11" s="9" t="s">
         <v>2</v>
@@ -16498,7 +16498,7 @@
         <v>7.0838696727555401E-3</v>
       </c>
       <c r="AT11" s="11">
-        <v>129.70588235294099</v>
+        <v>3.67285552941176</v>
       </c>
       <c r="AU11" s="9" t="s">
         <v>2</v>
@@ -16507,7 +16507,7 @@
         <v>1.78636277089348E-2</v>
       </c>
       <c r="AW11" s="11">
-        <v>80.4286229821316</v>
+        <v>2.2774812312604298</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.4">
@@ -16557,7 +16557,7 @@
         <v>2.9722634784774798E-2</v>
       </c>
       <c r="P12" s="11">
-        <v>294.54155374887102</v>
+        <v>8.3404742691960294</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>0</v>
@@ -16629,7 +16629,7 @@
         <v>2.0547189761317402E-3</v>
       </c>
       <c r="AN12" s="11">
-        <v>231.328125</v>
+        <v>6.5504722500000003</v>
       </c>
       <c r="AO12" s="9" t="s">
         <v>2</v>
@@ -16638,7 +16638,7 @@
         <v>2.12482443879278E-2</v>
       </c>
       <c r="AQ12" s="11">
-        <v>333.33333333333297</v>
+        <v>9.4389333333333294</v>
       </c>
       <c r="AR12" s="9" t="s">
         <v>2</v>
@@ -16647,7 +16647,7 @@
         <v>4.0954544320382903E-2</v>
       </c>
       <c r="AT12" s="11">
-        <v>120.71428571428601</v>
+        <v>3.4182422857142898</v>
       </c>
       <c r="AU12" s="9" t="s">
         <v>0</v>
@@ -16778,7 +16778,7 @@
         <v>1.0374262567202299E-2</v>
       </c>
       <c r="AN13" s="11">
-        <v>201.55567033976101</v>
+        <v>5.70741160587695</v>
       </c>
       <c r="AO13" s="9" t="s">
         <v>2</v>
@@ -16787,7 +16787,7 @@
         <v>2.9722634784774798E-2</v>
       </c>
       <c r="AQ13" s="11">
-        <v>296.66666666666703</v>
+        <v>8.4006506666666692</v>
       </c>
       <c r="AR13" s="9" t="s">
         <v>0</v>
@@ -16927,7 +16927,7 @@
         <v>8.5891792458101506E-3</v>
       </c>
       <c r="AN14" s="11">
-        <v>186.0625</v>
+        <v>5.2686945999999999</v>
       </c>
       <c r="AO14" s="9" t="s">
         <v>2</v>
@@ -16936,7 +16936,7 @@
         <v>8.5891792458101506E-3</v>
       </c>
       <c r="AQ14" s="11">
-        <v>333.33333333333297</v>
+        <v>9.4389333333333294</v>
       </c>
       <c r="AR14" s="9" t="s">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>2.5178332802859901E-2</v>
       </c>
       <c r="AW14" s="11">
-        <v>91.894171513766693</v>
+        <v>2.6021488759210301</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.4">
@@ -17076,7 +17076,7 @@
         <v>1.78636277089348E-2</v>
       </c>
       <c r="AN15" s="11">
-        <v>172.457142857143</v>
+        <v>4.8834344228571398</v>
       </c>
       <c r="AO15" s="9" t="s">
         <v>2</v>
@@ -17085,7 +17085,7 @@
         <v>2.12482443879278E-2</v>
       </c>
       <c r="AQ15" s="11">
-        <v>291.66666666666703</v>
+        <v>8.2590666666666692</v>
       </c>
       <c r="AR15" s="9" t="s">
         <v>0</v>
@@ -17103,7 +17103,7 @@
         <v>4.7804597893902602E-2</v>
       </c>
       <c r="AW15" s="11">
-        <v>58.099146651793603</v>
+        <v>1.64518191590951</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.4">
@@ -17225,7 +17225,7 @@
         <v>3.49550726436305E-2</v>
       </c>
       <c r="AN16" s="11">
-        <v>166.10119047619</v>
+        <v>4.7034541904761804</v>
       </c>
       <c r="AO16" s="9" t="s">
         <v>2</v>
@@ -17234,7 +17234,7 @@
         <v>2.9722634784774798E-2</v>
       </c>
       <c r="AQ16" s="11">
-        <v>301.25</v>
+        <v>8.5304359999999999</v>
       </c>
       <c r="AR16" s="9" t="s">
         <v>0</v>
@@ -17252,7 +17252,7 @@
         <v>4.0954544320382903E-2</v>
       </c>
       <c r="AW16" s="11">
-        <v>70.523888351049706</v>
+        <v>1.997010841659</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.4">
@@ -18214,7 +18214,7 @@
         <v>2.3140931308743801E-2</v>
       </c>
       <c r="V23" s="11">
-        <v>242</v>
+        <v>6.8526655999999999</v>
       </c>
       <c r="W23" s="9" t="s">
         <v>0</v>
@@ -18873,7 +18873,7 @@
         <v>3.49550726436305E-2</v>
       </c>
       <c r="AQ27" s="11">
-        <v>-402.5</v>
+        <v>-11.397512000000001</v>
       </c>
       <c r="AR27" s="9" t="s">
         <v>0</v>
@@ -21203,7 +21203,7 @@
         <v>1.2482226584454199E-2</v>
       </c>
       <c r="Y43" s="11">
-        <v>227.287347852685</v>
+        <v>6.4360503716749102</v>
       </c>
       <c r="Z43" s="9" t="s">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>2.9722634784774798E-2</v>
       </c>
       <c r="V46" s="11">
-        <v>-160.5</v>
+        <v>-4.5448464</v>
       </c>
       <c r="W46" s="9" t="s">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>4.0954544320382903E-2</v>
       </c>
       <c r="V47" s="11">
-        <v>-175.727272727273</v>
+        <v>-4.9760340363636404</v>
       </c>
       <c r="W47" s="9" t="s">
         <v>0</v>
@@ -22026,22 +22026,22 @@
     <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B47">
     <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="N">
@@ -22169,7 +22169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48 G48 M48 P48 S48 V48 Y48 AB48 AE48 AH48 AK48 AN48 AQ48 AT48 AW48">
+  <conditionalFormatting sqref="G48 J48 M48 P48 S48 V48 Y48 AB48 AE48 AH48 AK48 AN48 AQ48 AT48 AW48">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -22179,7 +22179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48 G48 J48 M48 P48 S48 V48 Y48 AB48 AE48 AH48 AK48 AN48 AQ48 AT48 AW48">
+  <conditionalFormatting sqref="G48 D48 J48 M48 P48 S48 V48 Y48 AB48 AE48 AH48 AK48 AN48 AQ48 AT48 AW48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -22330,8 +22330,8 @@
   <dimension ref="A1:AW39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:AW1"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3:AW37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22582,7 +22582,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0.12939609452106901</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>1</v>
@@ -22618,7 +22618,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>0</v>
@@ -22627,7 +22627,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>0</v>
@@ -22636,7 +22636,7 @@
         <v>0.26101940929538098</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>0</v>
@@ -22645,7 +22645,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>0</v>
@@ -22654,7 +22654,7 @@
         <v>0.11641261541028</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>0</v>
@@ -22663,7 +22663,7 @@
         <v>8.0391147542180394E-2</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>2</v>
@@ -22681,7 +22681,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL3" s="9" t="s">
         <v>0</v>
@@ -22690,7 +22690,7 @@
         <v>0.21171183194124299</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO3" s="9" t="s">
         <v>0</v>
@@ -22699,7 +22699,7 @@
         <v>0.108341426175579</v>
       </c>
       <c r="AQ3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR3" s="9" t="s">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0.92891886860193396</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU3" s="9" t="s">
         <v>2</v>
@@ -22731,7 +22731,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>0</v>
@@ -22740,7 +22740,7 @@
         <v>5.6263340750355703E-2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0.68155383000436498</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>1</v>
@@ -22767,7 +22767,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>0</v>
@@ -22776,7 +22776,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>0</v>
@@ -22785,7 +22785,7 @@
         <v>0.12939609452106901</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>0</v>
@@ -22794,7 +22794,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>0</v>
@@ -22803,7 +22803,7 @@
         <v>5.4000651353366E-2</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC4" s="9" t="s">
         <v>2</v>
@@ -22830,7 +22830,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL4" s="9" t="s">
         <v>0</v>
@@ -22839,7 +22839,7 @@
         <v>0.164043432144205</v>
       </c>
       <c r="AN4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO4" s="9" t="s">
         <v>0</v>
@@ -22848,7 +22848,7 @@
         <v>6.3529535419828004E-2</v>
       </c>
       <c r="AQ4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>0</v>
@@ -22857,7 +22857,7 @@
         <v>0.70791211615778904</v>
       </c>
       <c r="AT4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>2</v>
@@ -22880,7 +22880,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>0</v>
@@ -22889,7 +22889,7 @@
         <v>0.15349848843685401</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>0</v>
@@ -22898,7 +22898,7 @@
         <v>0.68155383000436498</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>1</v>
@@ -22916,7 +22916,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>0</v>
@@ -22925,7 +22925,7 @@
         <v>0.985765671954273</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>0</v>
@@ -22934,7 +22934,7 @@
         <v>0.29251480690391302</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>0</v>
@@ -22943,7 +22943,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>0</v>
@@ -22952,7 +22952,7 @@
         <v>0.11641261541028</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>0</v>
@@ -22961,7 +22961,7 @@
         <v>0.112319864128021</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>0</v>
@@ -22970,7 +22970,7 @@
         <v>6.1025830559998197E-2</v>
       </c>
       <c r="AH5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>0</v>
@@ -22979,7 +22979,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL5" s="9" t="s">
         <v>0</v>
@@ -22988,7 +22988,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="AN5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO5" s="9" t="s">
         <v>0</v>
@@ -22997,7 +22997,7 @@
         <v>0.143477081519571</v>
       </c>
       <c r="AQ5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR5" s="9" t="s">
         <v>0</v>
@@ -23006,7 +23006,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="AT5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU5" s="9" t="s">
         <v>0</v>
@@ -23015,7 +23015,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="AW5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.4">
@@ -23029,7 +23029,7 @@
         <v>0.45366236627030898</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>0</v>
@@ -23047,7 +23047,7 @@
         <v>0.66851662248070898</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>1</v>
@@ -23065,7 +23065,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0.95731513145616098</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0.38200361847616798</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>0</v>
@@ -23092,7 +23092,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>0</v>
@@ -23101,7 +23101,7 @@
         <v>7.4406913598051905E-2</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC6" s="9" t="s">
         <v>2</v>
@@ -23119,7 +23119,7 @@
         <v>9.3531352966360198E-2</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>0</v>
@@ -23128,7 +23128,7 @@
         <v>0.26866423042390902</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL6" s="9" t="s">
         <v>0</v>
@@ -23137,7 +23137,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO6" s="9" t="s">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>0.108341426175579</v>
       </c>
       <c r="AQ6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR6" s="9" t="s">
         <v>0</v>
@@ -23155,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="AT6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU6" s="9" t="s">
         <v>2</v>
@@ -23178,7 +23178,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>0</v>
@@ -23187,7 +23187,7 @@
         <v>0.112319864128021</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>1</v>
@@ -23214,7 +23214,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0.985765671954273</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>0.36287916266979497</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>0</v>
@@ -23250,7 +23250,7 @@
         <v>0.17512514633807799</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>0</v>
@@ -23259,7 +23259,7 @@
         <v>0.186756137760826</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>0</v>
@@ -23268,7 +23268,7 @@
         <v>0.100719626764514</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>0</v>
@@ -23277,7 +23277,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL7" s="9" t="s">
         <v>0</v>
@@ -23286,7 +23286,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO7" s="9" t="s">
         <v>0</v>
@@ -23295,7 +23295,7 @@
         <v>0.25352635930157902</v>
       </c>
       <c r="AQ7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR7" s="9" t="s">
         <v>0</v>
@@ -23304,7 +23304,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="AT7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU7" s="9" t="s">
         <v>0</v>
@@ -23313,7 +23313,7 @@
         <v>0.143477081519571</v>
       </c>
       <c r="AW7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.4">
@@ -23327,7 +23327,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         <v>0.112319864128021</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>1</v>
@@ -23363,7 +23363,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>0</v>
@@ -23372,7 +23372,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0.68155383000436498</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>2</v>
@@ -23417,7 +23417,7 @@
         <v>8.3526700051425706E-2</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI8" s="9" t="s">
         <v>0</v>
@@ -23426,7 +23426,7 @@
         <v>0.15349848843685401</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL8" s="9" t="s">
         <v>0</v>
@@ -23435,7 +23435,7 @@
         <v>0.186756137760826</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO8" s="9" t="s">
         <v>0</v>
@@ -23444,7 +23444,7 @@
         <v>6.3529535419828004E-2</v>
       </c>
       <c r="AQ8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR8" s="9" t="s">
         <v>0</v>
@@ -23453,7 +23453,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AT8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU8" s="9" t="s">
         <v>2</v>
@@ -23476,7 +23476,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>0</v>
@@ -23485,7 +23485,7 @@
         <v>0.218311218107649</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>9.3531352966360198E-2</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>0</v>
@@ -23521,7 +23521,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>0</v>
@@ -23530,7 +23530,7 @@
         <v>0.985765671954273</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>1</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>2</v>
@@ -23566,7 +23566,7 @@
         <v>6.3529535419828004E-2</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>0</v>
@@ -23575,7 +23575,7 @@
         <v>9.3531352966360198E-2</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL9" s="9" t="s">
         <v>2</v>
@@ -23602,7 +23602,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="AT9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU9" s="9" t="s">
         <v>2</v>
@@ -23625,7 +23625,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>0</v>
@@ -23634,7 +23634,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>0</v>
@@ -23643,7 +23643,7 @@
         <v>0.46448462957220599</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         <v>0.124948816854971</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>0.42206352235629402</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>0</v>
@@ -23688,7 +23688,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z10" s="9" t="s">
         <v>2</v>
@@ -23724,7 +23724,7 @@
         <v>0.164043432144205</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL10" s="9" t="s">
         <v>2</v>
@@ -23751,7 +23751,7 @@
         <v>0.21171183194124299</v>
       </c>
       <c r="AT10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU10" s="9" t="s">
         <v>2</v>
@@ -23774,7 +23774,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0.55602629220045197</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0.44298381598219</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>0</v>
@@ -23801,7 +23801,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>0</v>
@@ -23810,7 +23810,7 @@
         <v>0.17512514633807799</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>0</v>
@@ -23819,7 +23819,7 @@
         <v>0.25352635930157902</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0.30918255969487102</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>0</v>
@@ -23837,7 +23837,7 @@
         <v>0.39179343618958001</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>2</v>
@@ -23873,7 +23873,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL11" s="9" t="s">
         <v>2</v>
@@ -23900,7 +23900,7 @@
         <v>8.0391147542180394E-2</v>
       </c>
       <c r="AT11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU11" s="9" t="s">
         <v>2</v>
@@ -23923,7 +23923,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0.108341426175579</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>0</v>
@@ -23959,7 +23959,7 @@
         <v>0.13396533563924501</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>9.7072298120950196E-2</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0.592490180854787</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>2</v>
@@ -24004,7 +24004,7 @@
         <v>6.8791728171464298E-2</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>2</v>
@@ -24022,7 +24022,7 @@
         <v>0.225057145151003</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL12" s="9" t="s">
         <v>2</v>
@@ -24072,7 +24072,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>0</v>
@@ -24081,7 +24081,7 @@
         <v>0.42206352235629402</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>0</v>
@@ -24090,7 +24090,7 @@
         <v>0.21171183194124299</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>0.143477081519571</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>0</v>
@@ -24108,7 +24108,7 @@
         <v>7.4406913598051905E-2</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>0</v>
@@ -24117,7 +24117,7 @@
         <v>0.225057145151003</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>2</v>
@@ -24135,7 +24135,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z13" s="9" t="s">
         <v>2</v>
@@ -24153,7 +24153,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>2</v>
@@ -24171,7 +24171,7 @@
         <v>0.592490180854787</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL13" s="9" t="s">
         <v>2</v>
@@ -24221,7 +24221,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>0</v>
@@ -24230,7 +24230,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>0</v>
@@ -24239,7 +24239,7 @@
         <v>0.20525785795158499</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>9.3531352966360198E-2</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>8.0391147542180394E-2</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0.198948100775246</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>2</v>
@@ -24284,7 +24284,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>0</v>
@@ -24293,7 +24293,7 @@
         <v>8.6760571175884496E-2</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC14" s="9" t="s">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>0</v>
@@ -24311,7 +24311,7 @@
         <v>5.4000651353366E-2</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI14" s="9" t="s">
         <v>0</v>
@@ -24320,7 +24320,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL14" s="9" t="s">
         <v>2</v>
@@ -24370,7 +24370,7 @@
         <v>0.39179343618958001</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>8.0391147542180394E-2</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>0</v>
@@ -24388,7 +24388,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>1</v>
@@ -24406,7 +24406,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T15" s="9" t="s">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>9.7072298120950196E-2</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W15" s="9" t="s">
         <v>0</v>
@@ -24433,7 +24433,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC15" s="9" t="s">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0.87243265266498904</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF15" s="9" t="s">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0.36287916266979497</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI15" s="9" t="s">
         <v>0</v>
@@ -24469,7 +24469,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL15" s="9" t="s">
         <v>2</v>
@@ -24505,7 +24505,7 @@
         <v>0.143477081519571</v>
       </c>
       <c r="AW15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.4">
@@ -24519,7 +24519,7 @@
         <v>0.25352635930157902</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>1</v>
@@ -24537,7 +24537,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>1</v>
@@ -24555,7 +24555,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T16" s="9" t="s">
         <v>0</v>
@@ -24573,7 +24573,7 @@
         <v>0.30918255969487102</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W16" s="9" t="s">
         <v>0</v>
@@ -24582,7 +24582,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>0</v>
@@ -24591,7 +24591,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC16" s="9" t="s">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         <v>0.84441344494552895</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF16" s="9" t="s">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0.42206352235629402</v>
       </c>
       <c r="AH16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI16" s="9" t="s">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>0</v>
@@ -24627,7 +24627,7 @@
         <v>5.4000651353366E-2</v>
       </c>
       <c r="AN16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO16" s="9" t="s">
         <v>0</v>
@@ -24636,7 +24636,7 @@
         <v>0.23195067252769</v>
       </c>
       <c r="AQ16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR16" s="9" t="s">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0.100719626764514</v>
       </c>
       <c r="AT16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU16" s="9" t="s">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="AW16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.4">
@@ -24668,7 +24668,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         <v>0.112319864128021</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>7.4406913598051905E-2</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>0</v>
@@ -24704,7 +24704,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>0</v>
@@ -24713,7 +24713,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0.50917801402402696</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W17" s="9" t="s">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>0</v>
@@ -24749,7 +24749,7 @@
         <v>0.70791211615778904</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF17" s="9" t="s">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         <v>0.45366236627030898</v>
       </c>
       <c r="AH17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI17" s="9" t="s">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL17" s="9" t="s">
         <v>0</v>
@@ -24776,7 +24776,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="AN17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO17" s="9" t="s">
         <v>0</v>
@@ -24785,7 +24785,7 @@
         <v>0.63001350795794797</v>
       </c>
       <c r="AQ17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR17" s="9" t="s">
         <v>0</v>
@@ -24794,7 +24794,7 @@
         <v>0.25352635930157902</v>
       </c>
       <c r="AT17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU17" s="9" t="s">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="AW17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.4">
@@ -24817,7 +24817,7 @@
         <v>0.45366236627030898</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>0</v>
@@ -24826,7 +24826,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         <v>0.58021413550261403</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>1</v>
@@ -24853,7 +24853,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>0</v>
@@ -24862,7 +24862,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T18" s="9" t="s">
         <v>0</v>
@@ -24871,7 +24871,7 @@
         <v>0.73462510638564904</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W18" s="9" t="s">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0.66851662248070898</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC18" s="9" t="s">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0.68155383000436498</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF18" s="9" t="s">
         <v>0</v>
@@ -24907,7 +24907,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AH18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI18" s="9" t="s">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL18" s="9" t="s">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO18" s="9" t="s">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0.985765671954273</v>
       </c>
       <c r="AQ18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR18" s="9" t="s">
         <v>0</v>
@@ -24943,7 +24943,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="AT18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU18" s="9" t="s">
         <v>0</v>
@@ -24952,7 +24952,7 @@
         <v>1</v>
       </c>
       <c r="AW18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.4">
@@ -24966,7 +24966,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>0</v>
@@ -24975,7 +24975,7 @@
         <v>0.15349848843685401</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>0</v>
@@ -24984,7 +24984,7 @@
         <v>0.30918255969487102</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>0</v>
@@ -24993,7 +24993,7 @@
         <v>6.3529535419828004E-2</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>0</v>
@@ -25002,7 +25002,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>0</v>
@@ -25011,7 +25011,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>0.48655395826013198</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W19" s="9" t="s">
         <v>0</v>
@@ -25029,7 +25029,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z19" s="9" t="s">
         <v>0</v>
@@ -25038,7 +25038,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC19" s="9" t="s">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>0.53234123301215797</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF19" s="9" t="s">
         <v>0</v>
@@ -25056,7 +25056,7 @@
         <v>0.985765671954273</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI19" s="9" t="s">
         <v>0</v>
@@ -25065,7 +25065,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL19" s="9" t="s">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO19" s="9" t="s">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0.63001350795794797</v>
       </c>
       <c r="AQ19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR19" s="9" t="s">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AT19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU19" s="9" t="s">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="AW19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.4">
@@ -25115,7 +25115,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>0</v>
@@ -25124,7 +25124,7 @@
         <v>0.13865839096227101</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>0</v>
@@ -25133,7 +25133,7 @@
         <v>0.19278130099319901</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>1</v>
@@ -25151,7 +25151,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0.66851662248070898</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T20" s="9" t="s">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0.34436558250434901</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W20" s="9" t="s">
         <v>0</v>
@@ -25178,7 +25178,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z20" s="9" t="s">
         <v>0</v>
@@ -25187,7 +25187,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC20" s="9" t="s">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0.13865839096227101</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF20" s="9" t="s">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="AH20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI20" s="9" t="s">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL20" s="9" t="s">
         <v>0</v>
@@ -25223,7 +25223,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO20" s="9" t="s">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         <v>0.32646616711742199</v>
       </c>
       <c r="AQ20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR20" s="9" t="s">
         <v>0</v>
@@ -25241,7 +25241,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="AT20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU20" s="9" t="s">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0.45366236627030898</v>
       </c>
       <c r="AW20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.4">
@@ -25264,7 +25264,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>0</v>
@@ -25273,7 +25273,7 @@
         <v>0.104475339451675</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>0</v>
@@ -25282,7 +25282,7 @@
         <v>0.26866423042390902</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>1</v>
@@ -25300,7 +25300,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0.40173397222209001</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z21" s="9" t="s">
         <v>0</v>
@@ -25336,7 +25336,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>0</v>
@@ -25345,7 +25345,7 @@
         <v>8.3526700051425706E-2</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF21" s="9" t="s">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0.95731513145616098</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI21" s="9" t="s">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0.25352635930157902</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL21" s="9" t="s">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO21" s="9" t="s">
         <v>0</v>
@@ -25381,7 +25381,7 @@
         <v>0.180871231455624</v>
       </c>
       <c r="AQ21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR21" s="9" t="s">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="AT21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU21" s="9" t="s">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0.186756137760826</v>
       </c>
       <c r="AW21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.4">
@@ -25413,7 +25413,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>0</v>
@@ -25422,7 +25422,7 @@
         <v>8.3526700051425706E-2</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>0</v>
@@ -25431,7 +25431,7 @@
         <v>0.29251480690391302</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>0</v>
@@ -25440,7 +25440,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>0</v>
@@ -25449,7 +25449,7 @@
         <v>0.66851662248070898</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>0</v>
@@ -25458,7 +25458,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T22" s="9" t="s">
         <v>0</v>
@@ -25467,7 +25467,7 @@
         <v>0.27646141460796703</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W22" s="9" t="s">
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z22" s="9" t="s">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC22" s="9" t="s">
         <v>0</v>
@@ -25494,7 +25494,7 @@
         <v>0.27646141460796703</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF22" s="9" t="s">
         <v>0</v>
@@ -25503,7 +25503,7 @@
         <v>0.78899532565159902</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI22" s="9" t="s">
         <v>0</v>
@@ -25512,7 +25512,7 @@
         <v>0.592490180854787</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL22" s="9" t="s">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO22" s="9" t="s">
         <v>0</v>
@@ -25530,7 +25530,7 @@
         <v>0.44298381598219</v>
       </c>
       <c r="AQ22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR22" s="9" t="s">
         <v>0</v>
@@ -25539,7 +25539,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="AT22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU22" s="9" t="s">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="AW22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.4">
@@ -25562,7 +25562,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>1</v>
@@ -25580,7 +25580,7 @@
         <v>0.225057145151003</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>1</v>
@@ -25598,7 +25598,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="9" t="s">
         <v>0</v>
@@ -25607,7 +25607,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T23" s="9" t="s">
         <v>0</v>
@@ -25616,7 +25616,7 @@
         <v>0.158704675046481</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W23" s="9" t="s">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z23" s="9" t="s">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC23" s="9" t="s">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF23" s="9" t="s">
         <v>0</v>
@@ -25652,7 +25652,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI23" s="9" t="s">
         <v>0</v>
@@ -25661,7 +25661,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL23" s="9" t="s">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0.592490180854787</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO23" s="9" t="s">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0.60488400938396603</v>
       </c>
       <c r="AQ23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR23" s="9" t="s">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="AT23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU23" s="9" t="s">
         <v>0</v>
@@ -25697,7 +25697,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="AW23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.4">
@@ -25711,7 +25711,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>0</v>
@@ -25720,7 +25720,7 @@
         <v>5.6263340750355703E-2</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>0</v>
@@ -25729,7 +25729,7 @@
         <v>0.592490180854787</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>0</v>
@@ -25738,7 +25738,7 @@
         <v>0.11641261541028</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>0</v>
@@ -25747,7 +25747,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>0</v>
@@ -25756,7 +25756,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>0</v>
@@ -25765,7 +25765,7 @@
         <v>0.13865839096227101</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W24" s="9" t="s">
         <v>0</v>
@@ -25774,7 +25774,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z24" s="9" t="s">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC24" s="9" t="s">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>6.8791728171464298E-2</v>
       </c>
       <c r="AE24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF24" s="9" t="s">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0.76166313061088298</v>
       </c>
       <c r="AH24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI24" s="9" t="s">
         <v>0</v>
@@ -25810,7 +25810,7 @@
         <v>0.186756137760826</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL24" s="9" t="s">
         <v>0</v>
@@ -25819,7 +25819,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO24" s="9" t="s">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0.27646141460796703</v>
       </c>
       <c r="AQ24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR24" s="9" t="s">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="AT24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU24" s="9" t="s">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="AW24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.4">
@@ -25860,7 +25860,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>0</v>
@@ -25869,7 +25869,7 @@
         <v>8.6760571175884496E-2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>0</v>
@@ -25878,7 +25878,7 @@
         <v>0.60488400938396603</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>0</v>
@@ -25887,7 +25887,7 @@
         <v>0.21171183194124299</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>0</v>
@@ -25896,7 +25896,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="9" t="s">
         <v>0</v>
@@ -25905,7 +25905,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T25" s="9" t="s">
         <v>0</v>
@@ -25914,7 +25914,7 @@
         <v>0.23195067252769</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W25" s="9" t="s">
         <v>0</v>
@@ -25923,7 +25923,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z25" s="9" t="s">
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC25" s="9" t="s">
         <v>0</v>
@@ -25941,7 +25941,7 @@
         <v>0.12939609452106901</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF25" s="9" t="s">
         <v>0</v>
@@ -25950,7 +25950,7 @@
         <v>0.92891886860193396</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI25" s="9" t="s">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0.39179343618958001</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL25" s="9" t="s">
         <v>0</v>
@@ -25968,7 +25968,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO25" s="9" t="s">
         <v>0</v>
@@ -25977,7 +25977,7 @@
         <v>0.73462510638564904</v>
       </c>
       <c r="AQ25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR25" s="9" t="s">
         <v>0</v>
@@ -25986,7 +25986,7 @@
         <v>0.50917801402402696</v>
       </c>
       <c r="AT25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU25" s="9" t="s">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.4">
@@ -26009,7 +26009,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>0</v>
@@ -26018,7 +26018,7 @@
         <v>0.26101940929538098</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>0</v>
@@ -26027,7 +26027,7 @@
         <v>0.53234123301215797</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>0</v>
@@ -26036,7 +26036,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>0</v>
@@ -26045,7 +26045,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="9" t="s">
         <v>0</v>
@@ -26054,7 +26054,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T26" s="9" t="s">
         <v>0</v>
@@ -26063,7 +26063,7 @@
         <v>0.19278130099319901</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W26" s="9" t="s">
         <v>0</v>
@@ -26072,7 +26072,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z26" s="9" t="s">
         <v>0</v>
@@ -26081,7 +26081,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC26" s="9" t="s">
         <v>1</v>
@@ -26099,7 +26099,7 @@
         <v>0.76166313061088298</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI26" s="9" t="s">
         <v>0</v>
@@ -26108,7 +26108,7 @@
         <v>0.124948816854971</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL26" s="9" t="s">
         <v>0</v>
@@ -26117,7 +26117,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO26" s="9" t="s">
         <v>0</v>
@@ -26126,7 +26126,7 @@
         <v>0.38200361847616798</v>
       </c>
       <c r="AQ26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR26" s="9" t="s">
         <v>0</v>
@@ -26135,7 +26135,7 @@
         <v>0.58021413550261403</v>
       </c>
       <c r="AT26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU26" s="9" t="s">
         <v>0</v>
@@ -26144,7 +26144,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="AW26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.4">
@@ -26158,7 +26158,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>0</v>
@@ -26167,7 +26167,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>0</v>
@@ -26176,7 +26176,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>0</v>
@@ -26185,7 +26185,7 @@
         <v>0.39179343618958001</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>0</v>
@@ -26194,7 +26194,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T27" s="9" t="s">
         <v>0</v>
@@ -26212,7 +26212,7 @@
         <v>0.46448462957220599</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W27" s="9" t="s">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z27" s="9" t="s">
         <v>0</v>
@@ -26230,7 +26230,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>0</v>
@@ -26239,7 +26239,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF27" s="9" t="s">
         <v>0</v>
@@ -26248,7 +26248,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AH27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI27" s="9" t="s">
         <v>0</v>
@@ -26257,7 +26257,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL27" s="9" t="s">
         <v>0</v>
@@ -26266,7 +26266,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO27" s="9" t="s">
         <v>0</v>
@@ -26275,7 +26275,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="AQ27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR27" s="9" t="s">
         <v>0</v>
@@ -26284,7 +26284,7 @@
         <v>0.29251480690391302</v>
       </c>
       <c r="AT27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU27" s="9" t="s">
         <v>0</v>
@@ -26293,7 +26293,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.4">
@@ -26307,7 +26307,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>0</v>
@@ -26316,7 +26316,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>0</v>
@@ -26325,7 +26325,7 @@
         <v>0.70791211615778904</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>0</v>
@@ -26334,7 +26334,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>0</v>
@@ -26343,7 +26343,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>0</v>
@@ -26352,7 +26352,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T28" s="9" t="s">
         <v>0</v>
@@ -26361,7 +26361,7 @@
         <v>0.66851662248070898</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W28" s="9" t="s">
         <v>0</v>
@@ -26370,7 +26370,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z28" s="9" t="s">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AB28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC28" s="9" t="s">
         <v>0</v>
@@ -26388,7 +26388,7 @@
         <v>6.3529535419828004E-2</v>
       </c>
       <c r="AE28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF28" s="9" t="s">
         <v>0</v>
@@ -26397,7 +26397,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AH28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI28" s="9" t="s">
         <v>0</v>
@@ -26406,7 +26406,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="AK28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL28" s="9" t="s">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="AN28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO28" s="9" t="s">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AQ28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR28" s="9" t="s">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>0.12062162469691901</v>
       </c>
       <c r="AT28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU28" s="9" t="s">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="AW28" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.4">
@@ -26456,7 +26456,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>0</v>
@@ -26465,7 +26465,7 @@
         <v>0.95731513145616098</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>0</v>
@@ -26474,7 +26474,7 @@
         <v>0.87243265266498904</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>0</v>
@@ -26483,7 +26483,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>0</v>
@@ -26492,7 +26492,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>0</v>
@@ -26501,7 +26501,7 @@
         <v>0.225057145151003</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T29" s="9" t="s">
         <v>0</v>
@@ -26510,7 +26510,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W29" s="9" t="s">
         <v>0</v>
@@ -26519,7 +26519,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z29" s="9" t="s">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>0.30077175943477902</v>
       </c>
       <c r="AB29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC29" s="9" t="s">
         <v>0</v>
@@ -26537,7 +26537,7 @@
         <v>5.6263340750355703E-2</v>
       </c>
       <c r="AE29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF29" s="9" t="s">
         <v>0</v>
@@ -26546,7 +26546,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AH29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI29" s="9" t="s">
         <v>0</v>
@@ -26555,7 +26555,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="AK29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL29" s="9" t="s">
         <v>0</v>
@@ -26564,7 +26564,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO29" s="9" t="s">
         <v>0</v>
@@ -26573,7 +26573,7 @@
         <v>1</v>
       </c>
       <c r="AQ29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR29" s="9" t="s">
         <v>2</v>
@@ -26591,7 +26591,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AW29" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.4">
@@ -26605,7 +26605,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>0</v>
@@ -26614,7 +26614,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>0</v>
@@ -26623,7 +26623,7 @@
         <v>0.95731513145616098</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>0</v>
@@ -26632,7 +26632,7 @@
         <v>0.74810539142700105</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N30" s="9" t="s">
         <v>0</v>
@@ -26641,7 +26641,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>0</v>
@@ -26650,7 +26650,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T30" s="9" t="s">
         <v>0</v>
@@ -26659,7 +26659,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W30" s="9" t="s">
         <v>0</v>
@@ -26668,7 +26668,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z30" s="9" t="s">
         <v>0</v>
@@ -26677,7 +26677,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="AB30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC30" s="9" t="s">
         <v>0</v>
@@ -26686,7 +26686,7 @@
         <v>6.1025830559998197E-2</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF30" s="9" t="s">
         <v>0</v>
@@ -26695,7 +26695,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AH30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI30" s="9" t="s">
         <v>0</v>
@@ -26704,7 +26704,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL30" s="9" t="s">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO30" s="9" t="s">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR30" s="9" t="s">
         <v>2</v>
@@ -26740,7 +26740,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="AW30" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.4">
@@ -26754,7 +26754,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>0</v>
@@ -26763,7 +26763,7 @@
         <v>0.68155383000436498</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>0</v>
@@ -26772,7 +26772,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>0</v>
@@ -26781,7 +26781,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>0</v>
@@ -26790,7 +26790,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>0</v>
@@ -26799,7 +26799,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T31" s="9" t="s">
         <v>0</v>
@@ -26808,7 +26808,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W31" s="9" t="s">
         <v>0</v>
@@ -26817,7 +26817,7 @@
         <v>0.26866423042390902</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z31" s="9" t="s">
         <v>0</v>
@@ -26826,7 +26826,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="AB31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC31" s="9" t="s">
         <v>0</v>
@@ -26835,7 +26835,7 @@
         <v>8.0391147542180394E-2</v>
       </c>
       <c r="AE31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF31" s="9" t="s">
         <v>0</v>
@@ -26844,7 +26844,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI31" s="9" t="s">
         <v>0</v>
@@ -26853,7 +26853,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL31" s="9" t="s">
         <v>0</v>
@@ -26862,7 +26862,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="AN31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO31" s="9" t="s">
         <v>0</v>
@@ -26871,7 +26871,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AQ31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR31" s="9" t="s">
         <v>0</v>
@@ -26880,7 +26880,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="AT31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU31" s="9" t="s">
         <v>0</v>
@@ -26889,7 +26889,7 @@
         <v>0.592490180854787</v>
       </c>
       <c r="AW31" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.4">
@@ -26903,7 +26903,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>0</v>
@@ -26912,7 +26912,7 @@
         <v>0.158704675046481</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>0.58021413550261403</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>0</v>
@@ -26930,7 +26930,7 @@
         <v>0.124948816854971</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>0</v>
@@ -26939,7 +26939,7 @@
         <v>0.15349848843685401</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>0</v>
@@ -26948,7 +26948,7 @@
         <v>0.124948816854971</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W32" s="9" t="s">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z32" s="9" t="s">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="AB32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC32" s="9" t="s">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0.124948816854971</v>
       </c>
       <c r="AE32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF32" s="9" t="s">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0.50917801402402696</v>
       </c>
       <c r="AH32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI32" s="9" t="s">
         <v>0</v>
@@ -27002,7 +27002,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="AK32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL32" s="9" t="s">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="AN32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO32" s="9" t="s">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0.95731513145616098</v>
       </c>
       <c r="AQ32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR32" s="9" t="s">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0.108341426175579</v>
       </c>
       <c r="AT32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU32" s="9" t="s">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="AW32" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.4">
@@ -27052,7 +27052,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>0</v>
@@ -27061,7 +27061,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>0</v>
@@ -27070,7 +27070,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>0</v>
@@ -27079,7 +27079,7 @@
         <v>0.225057145151003</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>0</v>
@@ -27088,7 +27088,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>0</v>
@@ -27097,7 +27097,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T33" s="9" t="s">
         <v>0</v>
@@ -27106,7 +27106,7 @@
         <v>0.49779757652657702</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W33" s="9" t="s">
         <v>0</v>
@@ -27115,7 +27115,7 @@
         <v>9.3531352966360198E-2</v>
       </c>
       <c r="Y33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z33" s="9" t="s">
         <v>0</v>
@@ -27124,7 +27124,7 @@
         <v>0.108341426175579</v>
       </c>
       <c r="AB33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC33" s="9" t="s">
         <v>1</v>
@@ -27142,7 +27142,7 @@
         <v>0.95731513145616098</v>
       </c>
       <c r="AH33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI33" s="9" t="s">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>6.8791728171464298E-2</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL33" s="9" t="s">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="AN33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO33" s="9" t="s">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0.60488400938396603</v>
       </c>
       <c r="AQ33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR33" s="9" t="s">
         <v>0</v>
@@ -27178,7 +27178,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="AT33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU33" s="9" t="s">
         <v>0</v>
@@ -27187,7 +27187,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="AW33" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.4">
@@ -27201,7 +27201,7 @@
         <v>0.26866423042390902</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>0</v>
@@ -27210,7 +27210,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>1</v>
@@ -27228,7 +27228,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>0</v>
@@ -27237,7 +27237,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>0</v>
@@ -27246,7 +27246,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T34" s="9" t="s">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0.100719626764514</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W34" s="9" t="s">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0.37236530219802699</v>
       </c>
       <c r="Y34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z34" s="9" t="s">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="AB34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC34" s="9" t="s">
         <v>0</v>
@@ -27282,7 +27282,7 @@
         <v>0.186756137760826</v>
       </c>
       <c r="AE34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF34" s="9" t="s">
         <v>0</v>
@@ -27291,7 +27291,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI34" s="9" t="s">
         <v>0</v>
@@ -27300,7 +27300,7 @@
         <v>0.43245042353590002</v>
       </c>
       <c r="AK34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL34" s="9" t="s">
         <v>0</v>
@@ -27309,7 +27309,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="AN34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO34" s="9" t="s">
         <v>0</v>
@@ -27318,7 +27318,7 @@
         <v>0.92891886860193396</v>
       </c>
       <c r="AQ34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR34" s="9" t="s">
         <v>0</v>
@@ -27327,7 +27327,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AT34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU34" s="9" t="s">
         <v>0</v>
@@ -27336,7 +27336,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AW34" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.4">
@@ -27350,7 +27350,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>0</v>
@@ -27359,7 +27359,7 @@
         <v>0.36287916266979497</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>0</v>
@@ -27368,7 +27368,7 @@
         <v>7.7351892021257904E-2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>0</v>
@@ -27377,7 +27377,7 @@
         <v>0.21171183194124299</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N35" s="9" t="s">
         <v>0</v>
@@ -27386,7 +27386,7 @@
         <v>0.85840075296372698</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>0</v>
@@ -27395,7 +27395,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T35" s="9" t="s">
         <v>0</v>
@@ -27404,7 +27404,7 @@
         <v>0.100719626764514</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W35" s="9" t="s">
         <v>0</v>
@@ -27413,7 +27413,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z35" s="9" t="s">
         <v>0</v>
@@ -27422,7 +27422,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="AB35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC35" s="9" t="s">
         <v>0</v>
@@ -27431,7 +27431,7 @@
         <v>0.186756137760826</v>
       </c>
       <c r="AE35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF35" s="9" t="s">
         <v>0</v>
@@ -27440,7 +27440,7 @@
         <v>0.68155383000436498</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI35" s="9" t="s">
         <v>0</v>
@@ -27449,7 +27449,7 @@
         <v>0.25352635930157902</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL35" s="9" t="s">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0.31774734769908802</v>
       </c>
       <c r="AN35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO35" s="9" t="s">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0.48655395826013198</v>
       </c>
       <c r="AQ35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR35" s="9" t="s">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0.72122609850016395</v>
       </c>
       <c r="AT35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU35" s="9" t="s">
         <v>0</v>
@@ -27485,7 +27485,7 @@
         <v>0.64274317606842202</v>
       </c>
       <c r="AW35" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.4">
@@ -27499,7 +27499,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0.58021413550261403</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>5.8604418866184997E-2</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0.23899278790152201</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>0</v>
@@ -27535,7 +27535,7 @@
         <v>0.94310796167176103</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>0</v>
@@ -27544,7 +27544,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T36" s="9" t="s">
         <v>0</v>
@@ -27553,7 +27553,7 @@
         <v>0.198948100775246</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W36" s="9" t="s">
         <v>0</v>
@@ -27562,7 +27562,7 @@
         <v>0.284411467622048</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z36" s="9" t="s">
         <v>0</v>
@@ -27571,7 +27571,7 @@
         <v>0.61739276907100904</v>
       </c>
       <c r="AB36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC36" s="9" t="s">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>0.27646141460796703</v>
       </c>
       <c r="AE36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF36" s="9" t="s">
         <v>0</v>
@@ -27589,7 +27589,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AH36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI36" s="9" t="s">
         <v>0</v>
@@ -27598,7 +27598,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL36" s="9" t="s">
         <v>0</v>
@@ -27607,7 +27607,7 @@
         <v>0.33533896348473202</v>
       </c>
       <c r="AN36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO36" s="9" t="s">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0.83047502412448104</v>
       </c>
       <c r="AQ36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR36" s="9" t="s">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0.80276179187414298</v>
       </c>
       <c r="AT36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU36" s="9" t="s">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AW36" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -27648,7 +27648,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>0</v>
@@ -27657,7 +27657,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>8.0391147542180394E-2</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0.56805862363159498</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0.475449049528266</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>0</v>
@@ -27693,7 +27693,7 @@
         <v>0.52069326983308795</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T37" s="9" t="s">
         <v>0</v>
@@ -27702,7 +27702,7 @@
         <v>0.17512514633807799</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W37" s="9" t="s">
         <v>0</v>
@@ -27711,7 +27711,7 @@
         <v>0.91475233908473697</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z37" s="9" t="s">
         <v>0</v>
@@ -27720,7 +27720,7 @@
         <v>0.77529442951778504</v>
       </c>
       <c r="AB37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC37" s="9" t="s">
         <v>0</v>
@@ -27729,7 +27729,7 @@
         <v>0.35354576844992402</v>
       </c>
       <c r="AE37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF37" s="9" t="s">
         <v>0</v>
@@ -27738,7 +27738,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="AH37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI37" s="9" t="s">
         <v>0</v>
@@ -27747,7 +27747,7 @@
         <v>0.544119683338951</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL37" s="9" t="s">
         <v>0</v>
@@ -27756,7 +27756,7 @@
         <v>0.41182433473249103</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO37" s="9" t="s">
         <v>0</v>
@@ -27765,7 +27765,7 @@
         <v>0.886504806413831</v>
       </c>
       <c r="AQ37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR37" s="9" t="s">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0.694686830013867</v>
       </c>
       <c r="AT37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU37" s="9" t="s">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0.97153587388799401</v>
       </c>
       <c r="AW37" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:49" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -27938,22 +27938,22 @@
     <row r="39" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B37">
     <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="N">
@@ -28081,7 +28081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38 G38 M38 P38 S38 V38 Y38 AB38 AE38 AH38 AK38 AN38 AQ38 AT38 AW38">
+  <conditionalFormatting sqref="G38 J38 M38 P38 S38 V38 Y38 AB38 AE38 AH38 AK38 AN38 AQ38 AT38 AW38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -28091,7 +28091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38 G38 J38 M38 P38 S38 V38 Y38 AB38 AE38 AH38 AK38 AN38 AQ38 AT38 AW38">
+  <conditionalFormatting sqref="G38 D38 J38 M38 P38 S38 V38 Y38 AB38 AE38 AH38 AK38 AN38 AQ38 AT38 AW38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -28241,9 +28241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:AW1"/>
+      <selection pane="topRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -28494,7 +28494,7 @@
         <v>0.56806696085139197</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>1</v>
@@ -28512,7 +28512,7 @@
         <v>0.23011737495822199</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>1</v>
@@ -28530,7 +28530,7 @@
         <v>0.34530569744810202</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0.41474472935628398</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0.56019510938460604</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>0</v>
@@ -28557,7 +28557,7 @@
         <v>0.63286914228662705</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>2</v>
@@ -28593,7 +28593,7 @@
         <v>0.14528778909526699</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL3" s="9" t="s">
         <v>2</v>
@@ -28620,7 +28620,7 @@
         <v>0.15183576182655401</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU3" s="9" t="s">
         <v>2</v>
@@ -28643,7 +28643,7 @@
         <v>0.25841287570986998</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>1</v>
@@ -28661,7 +28661,7 @@
         <v>0.52924701900107396</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>1</v>
@@ -28679,7 +28679,7 @@
         <v>0.50662056950446099</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0.52924701900107396</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>0</v>
@@ -28697,7 +28697,7 @@
         <v>0.64118587973796703</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0.73545361811717502</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>2</v>
@@ -28724,7 +28724,7 @@
         <v>0.12693877134651699</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>2</v>
@@ -28742,7 +28742,7 @@
         <v>0.39503297664086701</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL4" s="9" t="s">
         <v>2</v>
@@ -28769,7 +28769,7 @@
         <v>0.121240531890668</v>
       </c>
       <c r="AT4" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU4" s="9" t="s">
         <v>2</v>
@@ -28792,7 +28792,7 @@
         <v>5.4552842674162598E-2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1</v>
@@ -28810,7 +28810,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>1</v>
@@ -28828,7 +28828,7 @@
         <v>0.99070402972317495</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0.77976535556225601</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0.96282873377530498</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>7.4650089774279504E-2</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>0</v>
@@ -28873,7 +28873,7 @@
         <v>0.31634891900228301</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>0</v>
@@ -28882,7 +28882,7 @@
         <v>5.3104308314614997E-2</v>
       </c>
       <c r="AH5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>0</v>
@@ -28891,7 +28891,7 @@
         <v>0.60007229246365501</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL5" s="9" t="s">
         <v>2</v>
@@ -28918,7 +28918,7 @@
         <v>0.26335379770898598</v>
       </c>
       <c r="AT5" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU5" s="9" t="s">
         <v>2</v>
@@ -28941,7 +28941,7 @@
         <v>5.1688049755314699E-2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1</v>
@@ -28959,7 +28959,7 @@
         <v>0.70927266151350798</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>1</v>
@@ -28977,7 +28977,7 @@
         <v>0.53690179530487903</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0.81574533871311405</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0.54461184239480198</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0.60007229246365501</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>6.7367791658971707E-2</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC6" s="9" t="s">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0.24872473553918201</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>0</v>
@@ -29031,7 +29031,7 @@
         <v>0.121240531890668</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0.50662056950446099</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL6" s="9" t="s">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>8.6767362212509802E-2</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO6" s="9" t="s">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0.13587424025509001</v>
       </c>
       <c r="AQ6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR6" s="9" t="s">
         <v>0</v>
@@ -29067,7 +29067,7 @@
         <v>0.41474472935628398</v>
       </c>
       <c r="AT6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU6" s="9" t="s">
         <v>0</v>
@@ -29076,7 +29076,7 @@
         <v>0.13284330966269101</v>
       </c>
       <c r="AW6" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.4">
@@ -29090,7 +29090,7 @@
         <v>0.10042517436963699</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1</v>
@@ -29108,7 +29108,7 @@
         <v>0.79770162396167299</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>1</v>
@@ -29126,7 +29126,7 @@
         <v>0.80671062228308998</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0.98140932124284896</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>0</v>
@@ -29144,7 +29144,7 @@
         <v>0.62459856346776199</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>0</v>
@@ -29153,7 +29153,7 @@
         <v>0.87961014139694804</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0.121240531890668</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0.36346589840815202</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF7" s="9" t="s">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0.105341058564677</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>0</v>
@@ -29189,7 +29189,7 @@
         <v>0.61637500348035901</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL7" s="9" t="s">
         <v>0</v>
@@ -29198,7 +29198,7 @@
         <v>0.21252193540505901</v>
       </c>
       <c r="AN7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO7" s="9" t="s">
         <v>0</v>
@@ -29207,7 +29207,7 @@
         <v>0.26335379770898598</v>
       </c>
       <c r="AQ7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR7" s="9" t="s">
         <v>0</v>
@@ -29216,7 +29216,7 @@
         <v>0.59199477278886803</v>
       </c>
       <c r="AT7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU7" s="9" t="s">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         <v>0.24872473553918201</v>
       </c>
       <c r="AW7" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.4">
@@ -29239,7 +29239,7 @@
         <v>0.33352610308834602</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1</v>
@@ -29257,7 +29257,7 @@
         <v>0.69200531038320401</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>1</v>
@@ -29275,7 +29275,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0.90724808733028095</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>0.87961014139694804</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>2</v>
@@ -29320,7 +29320,7 @@
         <v>0.10285976142339399</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0.30522588162588798</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI8" s="9" t="s">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0.21252193540505901</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL8" s="9" t="s">
         <v>0</v>
@@ -29347,7 +29347,7 @@
         <v>8.2563100854812901E-2</v>
       </c>
       <c r="AN8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO8" s="9" t="s">
         <v>0</v>
@@ -29356,7 +29356,7 @@
         <v>9.3396113841550693E-2</v>
       </c>
       <c r="AQ8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR8" s="9" t="s">
         <v>0</v>
@@ -29365,7 +29365,7 @@
         <v>0.34530569744810202</v>
       </c>
       <c r="AT8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU8" s="9" t="s">
         <v>0</v>
@@ -29374,7 +29374,7 @@
         <v>6.3951978052436506E-2</v>
       </c>
       <c r="AW8" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.4">
@@ -29388,7 +29388,7 @@
         <v>0.52164814884452304</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>0</v>
@@ -29397,7 +29397,7 @@
         <v>6.3951978052436506E-2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>0</v>
@@ -29406,7 +29406,7 @@
         <v>0.53690179530487903</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>1</v>
@@ -29424,7 +29424,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0.93499880397050505</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0.92573809933131401</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0.78871948990320495</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>2</v>
@@ -29469,7 +29469,7 @@
         <v>5.3104308314614997E-2</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0.110445992364054</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0.18798383813865399</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL9" s="9" t="s">
         <v>2</v>
@@ -29505,7 +29505,7 @@
         <v>9.8036742332127794E-2</v>
       </c>
       <c r="AQ9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR9" s="9" t="s">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0.26835952882925301</v>
       </c>
       <c r="AT9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU9" s="9" t="s">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>7.4650089774279504E-2</v>
       </c>
       <c r="AW9" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.4">
@@ -29537,7 +29537,7 @@
         <v>0.84299218382095598</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>0</v>
@@ -29546,7 +29546,7 @@
         <v>0.25841287570986998</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>0</v>
@@ -29555,7 +29555,7 @@
         <v>0.16918661158402901</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>0</v>
@@ -29564,7 +29564,7 @@
         <v>5.4552842674162598E-2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>0</v>
@@ -29573,7 +29573,7 @@
         <v>0.36964973295093501</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>0</v>
@@ -29582,7 +29582,7 @@
         <v>0.64954789825623704</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>0</v>
@@ -29591,7 +29591,7 @@
         <v>0.33938312065834603</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>0</v>
@@ -29600,7 +29600,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z10" s="9" t="s">
         <v>2</v>
@@ -29618,7 +29618,7 @@
         <v>0.18410611949608</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>0</v>
@@ -29627,7 +29627,7 @@
         <v>7.6567810425498303E-2</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI10" s="9" t="s">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0.33352610308834602</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL10" s="9" t="s">
         <v>2</v>
@@ -29654,7 +29654,7 @@
         <v>6.5641570203308894E-2</v>
       </c>
       <c r="AQ10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR10" s="9" t="s">
         <v>0</v>
@@ -29663,7 +29663,7 @@
         <v>0.16560248483061499</v>
       </c>
       <c r="AT10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU10" s="9" t="s">
         <v>0</v>
@@ -29672,7 +29672,7 @@
         <v>5.7548879691393197E-2</v>
       </c>
       <c r="AW10" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.4">
@@ -29686,7 +29686,7 @@
         <v>0.89802126213228195</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>0</v>
@@ -29695,7 +29695,7 @@
         <v>0.208279039706567</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>0</v>
@@ -29704,7 +29704,7 @@
         <v>0.199978156195942</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>1</v>
@@ -29722,7 +29722,7 @@
         <v>0.18798383813865399</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>0</v>
@@ -29731,7 +29731,7 @@
         <v>0.34530569744810202</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>0</v>
@@ -29740,7 +29740,7 @@
         <v>0.176528914752653</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0.68343063886336097</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>2</v>
@@ -29767,7 +29767,7 @@
         <v>0.35734719361075701</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF11" s="9" t="s">
         <v>2</v>
@@ -29785,7 +29785,7 @@
         <v>0.70061964832883605</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL11" s="9" t="s">
         <v>2</v>
@@ -29803,7 +29803,7 @@
         <v>5.6034187283878503E-2</v>
       </c>
       <c r="AQ11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR11" s="9" t="s">
         <v>2</v>
@@ -29821,7 +29821,7 @@
         <v>0.105341058564677</v>
       </c>
       <c r="AW11" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.4">
@@ -29835,7 +29835,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>0</v>
@@ -29844,7 +29844,7 @@
         <v>0.23011737495822199</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>0</v>
@@ -29853,7 +29853,7 @@
         <v>0.14209597776580499</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>1</v>
@@ -29871,7 +29871,7 @@
         <v>0.23011737495822199</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>0</v>
@@ -29880,7 +29880,7 @@
         <v>0.57599134652703898</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>0</v>
@@ -29889,7 +29889,7 @@
         <v>0.113070727324696</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W12" s="9" t="s">
         <v>0</v>
@@ -29898,7 +29898,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>2</v>
@@ -29916,7 +29916,7 @@
         <v>0.27343023078989898</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF12" s="9" t="s">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>8.4644116056920904E-2</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI12" s="9" t="s">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0.40811042046106</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL12" s="9" t="s">
         <v>2</v>
@@ -29952,7 +29952,7 @@
         <v>5.3104308314614997E-2</v>
       </c>
       <c r="AQ12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR12" s="9" t="s">
         <v>2</v>
@@ -29970,7 +29970,7 @@
         <v>0.115744368429836</v>
       </c>
       <c r="AW12" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.4">
@@ -29984,7 +29984,7 @@
         <v>0.770840345264592</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>0</v>
@@ -29993,7 +29993,7 @@
         <v>0.115744368429836</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>0</v>
@@ -30002,7 +30002,7 @@
         <v>0.21682690771792501</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>1</v>
@@ -30020,7 +30020,7 @@
         <v>0.25841287570986998</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>0</v>
@@ -30029,7 +30029,7 @@
         <v>0.70927266151350798</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>0</v>
@@ -30038,7 +30038,7 @@
         <v>0.10285976142339399</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W13" s="9" t="s">
         <v>0</v>
@@ -30047,7 +30047,7 @@
         <v>0.89802126213228195</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z13" s="9" t="s">
         <v>2</v>
@@ -30065,7 +30065,7 @@
         <v>0.48451323907508098</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>6.9131197130075706E-2</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI13" s="9" t="s">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0.58396753420633296</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL13" s="9" t="s">
         <v>2</v>
@@ -30101,7 +30101,7 @@
         <v>7.2771787498305596E-2</v>
       </c>
       <c r="AQ13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR13" s="9" t="s">
         <v>2</v>
@@ -30119,7 +30119,7 @@
         <v>0.18028794638930301</v>
       </c>
       <c r="AW13" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.4">
@@ -30133,7 +30133,7 @@
         <v>0.82480461683375506</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>0</v>
@@ -30142,7 +30142,7 @@
         <v>0.13284330966269101</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>0</v>
@@ -30151,7 +30151,7 @@
         <v>0.16918661158402901</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>1</v>
@@ -30169,7 +30169,7 @@
         <v>9.1142798844292994E-2</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>0</v>
@@ -30178,7 +30178,7 @@
         <v>0.42820305617071303</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>2</v>
@@ -30196,7 +30196,7 @@
         <v>0.89802126213228195</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>0</v>
@@ -30205,7 +30205,7 @@
         <v>0.105341058564677</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC14" s="9" t="s">
         <v>0</v>
@@ -30214,7 +30214,7 @@
         <v>0.76194557178552802</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>6.5641570203308894E-2</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI14" s="9" t="s">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="AK14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL14" s="9" t="s">
         <v>2</v>
@@ -30250,7 +30250,7 @@
         <v>7.6567810425498303E-2</v>
       </c>
       <c r="AQ14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR14" s="9" t="s">
         <v>2</v>
@@ -30268,7 +30268,7 @@
         <v>0.23011737495822199</v>
       </c>
       <c r="AW14" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.4">
@@ -30282,7 +30282,7 @@
         <v>0.36964973295093501</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>1</v>
@@ -30300,7 +30300,7 @@
         <v>0.35129375437573401</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>1</v>
@@ -30318,7 +30318,7 @@
         <v>0.20409789310190099</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>0</v>
@@ -30327,7 +30327,7 @@
         <v>0.78871948990320495</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T15" s="9" t="s">
         <v>2</v>
@@ -30345,7 +30345,7 @@
         <v>0.68343063886336097</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>0</v>
@@ -30354,7 +30354,7 @@
         <v>0.15860607706086899</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC15" s="9" t="s">
         <v>0</v>
@@ -30363,7 +30363,7 @@
         <v>0.953545373759069</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF15" s="9" t="s">
         <v>0</v>
@@ -30372,7 +30372,7 @@
         <v>0.118467457266586</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI15" s="9" t="s">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0.86126388362130901</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL15" s="9" t="s">
         <v>2</v>
@@ -30399,7 +30399,7 @@
         <v>7.2771787498305596E-2</v>
       </c>
       <c r="AQ15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR15" s="9" t="s">
         <v>2</v>
@@ -30417,7 +30417,7 @@
         <v>0.26835952882925301</v>
       </c>
       <c r="AW15" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.4">
@@ -30431,7 +30431,7 @@
         <v>0.39503297664086701</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>0</v>
@@ -30440,7 +30440,7 @@
         <v>8.8933402283605495E-2</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>0.40153974523166402</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>1</v>
@@ -30467,7 +30467,7 @@
         <v>0.20409789310190099</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>0</v>
@@ -30476,7 +30476,7 @@
         <v>0.64954789825623704</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T16" s="9" t="s">
         <v>2</v>
@@ -30494,7 +30494,7 @@
         <v>0.770840345264592</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>0</v>
@@ -30503,7 +30503,7 @@
         <v>0.28903354254194402</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC16" s="9" t="s">
         <v>0</v>
@@ -30512,7 +30512,7 @@
         <v>0.77976535556225601</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF16" s="9" t="s">
         <v>0</v>
@@ -30521,7 +30521,7 @@
         <v>0.115744368429836</v>
       </c>
       <c r="AH16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI16" s="9" t="s">
         <v>0</v>
@@ -30530,7 +30530,7 @@
         <v>0.99070402972317495</v>
       </c>
       <c r="AK16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>2</v>
@@ -30548,7 +30548,7 @@
         <v>0.176528914752653</v>
       </c>
       <c r="AQ16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR16" s="9" t="s">
         <v>2</v>
@@ -30566,7 +30566,7 @@
         <v>0.44885982086404902</v>
       </c>
       <c r="AW16" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.4">
@@ -30580,7 +30580,7 @@
         <v>0.25841287570986998</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>0</v>
@@ -30589,7 +30589,7 @@
         <v>5.6034187283878503E-2</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>0</v>
@@ -30598,7 +30598,7 @@
         <v>0.60819930490511098</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>1</v>
@@ -30616,7 +30616,7 @@
         <v>0.47726203508105097</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>0</v>
@@ -30625,7 +30625,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>0</v>
@@ -30634,7 +30634,7 @@
         <v>8.4644116056920904E-2</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W17" s="9" t="s">
         <v>0</v>
@@ -30643,7 +30643,7 @@
         <v>0.50662056950446099</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>0</v>
@@ -30652,7 +30652,7 @@
         <v>0.49182374314403698</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC17" s="9" t="s">
         <v>0</v>
@@ -30661,7 +30661,7 @@
         <v>0.68343063886336097</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF17" s="9" t="s">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>0.14528778909526699</v>
       </c>
       <c r="AH17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI17" s="9" t="s">
         <v>0</v>
@@ -30679,7 +30679,7 @@
         <v>0.99070402972317495</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL17" s="9" t="s">
         <v>2</v>
@@ -30697,7 +30697,7 @@
         <v>0.29436542809529498</v>
       </c>
       <c r="AQ17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR17" s="9" t="s">
         <v>2</v>
@@ -30715,7 +30715,7 @@
         <v>0.68343063886336097</v>
       </c>
       <c r="AW17" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.4">
@@ -30729,7 +30729,7 @@
         <v>0.13895829457075301</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>0</v>
@@ -30738,7 +30738,7 @@
         <v>5.4552842674162598E-2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0.93499880397050505</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>1</v>
@@ -30765,7 +30765,7 @@
         <v>0.49182374314403698</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>0</v>
@@ -30774,7 +30774,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T18" s="9" t="s">
         <v>0</v>
@@ -30783,7 +30783,7 @@
         <v>0.16918661158402901</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W18" s="9" t="s">
         <v>0</v>
@@ -30792,7 +30792,7 @@
         <v>0.63286914228662705</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>0</v>
@@ -30801,7 +30801,7 @@
         <v>0.99070402972317495</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC18" s="9" t="s">
         <v>0</v>
@@ -30810,7 +30810,7 @@
         <v>0.27856604965694498</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF18" s="9" t="s">
         <v>0</v>
@@ -30819,7 +30819,7 @@
         <v>0.26835952882925301</v>
       </c>
       <c r="AH18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI18" s="9" t="s">
         <v>0</v>
@@ -30828,7 +30828,7 @@
         <v>0.50662056950446099</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL18" s="9" t="s">
         <v>0</v>
@@ -30837,7 +30837,7 @@
         <v>8.2563100854812901E-2</v>
       </c>
       <c r="AN18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO18" s="9" t="s">
         <v>0</v>
@@ -30846,7 +30846,7 @@
         <v>0.62459856346776199</v>
       </c>
       <c r="AQ18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR18" s="9" t="s">
         <v>2</v>
@@ -30864,7 +30864,7 @@
         <v>0.770840345264592</v>
       </c>
       <c r="AW18" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.4">
@@ -30878,7 +30878,7 @@
         <v>0.239293511765585</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>0</v>
@@ -30887,7 +30887,7 @@
         <v>0.176528914752653</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>0</v>
@@ -30896,7 +30896,7 @@
         <v>0.71796334377759996</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>0</v>
@@ -30905,7 +30905,7 @@
         <v>0.15183576182655401</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>0</v>
@@ -30914,7 +30914,7 @@
         <v>0.25841287570986998</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>0</v>
@@ -30923,7 +30923,7 @@
         <v>0.68343063886336097</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>0</v>
@@ -30932,7 +30932,7 @@
         <v>5.9097460390642002E-2</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W19" s="9" t="s">
         <v>0</v>
@@ -30941,7 +30941,7 @@
         <v>0.87961014139694804</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z19" s="9" t="s">
         <v>0</v>
@@ -30950,7 +30950,7 @@
         <v>0.44885982086404902</v>
       </c>
       <c r="AB19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC19" s="9" t="s">
         <v>0</v>
@@ -30959,7 +30959,7 @@
         <v>8.4644116056920904E-2</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF19" s="9" t="s">
         <v>0</v>
@@ -30968,7 +30968,7 @@
         <v>0.61637500348035901</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI19" s="9" t="s">
         <v>0</v>
@@ -30977,7 +30977,7 @@
         <v>0.239293511765585</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL19" s="9" t="s">
         <v>0</v>
@@ -30986,7 +30986,7 @@
         <v>0.121240531890668</v>
       </c>
       <c r="AN19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO19" s="9" t="s">
         <v>0</v>
@@ -30995,7 +30995,7 @@
         <v>0.83388729040633003</v>
       </c>
       <c r="AQ19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR19" s="9" t="s">
         <v>2</v>
@@ -31013,7 +31013,7 @@
         <v>0.75308213593589601</v>
       </c>
       <c r="AW19" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.4">
@@ -31027,7 +31027,7 @@
         <v>0.15183576182655401</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>0</v>
@@ -31036,7 +31036,7 @@
         <v>0.10042517436963699</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>0</v>
@@ -31045,7 +31045,7 @@
         <v>0.770840345264592</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>0</v>
@@ -31054,7 +31054,7 @@
         <v>9.5693908351639503E-2</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>0</v>
@@ -31063,7 +31063,7 @@
         <v>0.27856604965694498</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>0</v>
@@ -31072,7 +31072,7 @@
         <v>0.69200531038320401</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T20" s="9" t="s">
         <v>0</v>
@@ -31081,7 +31081,7 @@
         <v>0.14209597776580499</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W20" s="9" t="s">
         <v>0</v>
@@ -31090,7 +31090,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z20" s="9" t="s">
         <v>0</v>
@@ -31099,7 +31099,7 @@
         <v>0.14528778909526699</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC20" s="9" t="s">
         <v>1</v>
@@ -31117,7 +31117,7 @@
         <v>0.99070402972317495</v>
       </c>
       <c r="AH20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI20" s="9" t="s">
         <v>0</v>
@@ -31126,7 +31126,7 @@
         <v>7.8525510926546804E-2</v>
       </c>
       <c r="AK20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL20" s="9" t="s">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>0.43502642785483803</v>
       </c>
       <c r="AN20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO20" s="9" t="s">
         <v>0</v>
@@ -31144,7 +31144,7 @@
         <v>0.57599134652703898</v>
       </c>
       <c r="AQ20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR20" s="9" t="s">
         <v>0</v>
@@ -31153,7 +31153,7 @@
         <v>6.7367791658971707E-2</v>
       </c>
       <c r="AT20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU20" s="9" t="s">
         <v>0</v>
@@ -31162,7 +31162,7 @@
         <v>0.26835952882925301</v>
       </c>
       <c r="AW20" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.4">
@@ -31176,7 +31176,7 @@
         <v>0.14528778909526699</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>0.12986499204151</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>0</v>
@@ -31194,7 +31194,7 @@
         <v>0.92573809933131401</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>0.15860607706086899</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>0</v>
@@ -31212,7 +31212,7 @@
         <v>0.58396753420633296</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>0</v>
@@ -31221,7 +31221,7 @@
         <v>0.92573809933131401</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T21" s="9" t="s">
         <v>0</v>
@@ -31230,7 +31230,7 @@
         <v>0.41474472935628398</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>0</v>
@@ -31239,7 +31239,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z21" s="9" t="s">
         <v>0</v>
@@ -31248,7 +31248,7 @@
         <v>0.115744368429836</v>
       </c>
       <c r="AB21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>1</v>
@@ -31266,7 +31266,7 @@
         <v>0.82480461683375506</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI21" s="9" t="s">
         <v>0</v>
@@ -31275,7 +31275,7 @@
         <v>0.12693877134651699</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL21" s="9" t="s">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>0.86126388362130901</v>
       </c>
       <c r="AN21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO21" s="9" t="s">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>0.40153974523166402</v>
       </c>
       <c r="AQ21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR21" s="9" t="s">
         <v>0</v>
@@ -31302,7 +31302,7 @@
         <v>0.15183576182655401</v>
       </c>
       <c r="AT21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU21" s="9" t="s">
         <v>0</v>
@@ -31311,7 +31311,7 @@
         <v>0.221194271982253</v>
       </c>
       <c r="AW21" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.4">
@@ -31325,7 +31325,7 @@
         <v>0.39503297664086701</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>0</v>
@@ -31334,7 +31334,7 @@
         <v>0.36964973295093501</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>0</v>
@@ -31343,7 +31343,7 @@
         <v>0.96282873377530498</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>0</v>
@@ -31352,7 +31352,7 @@
         <v>0.61637500348035901</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>0.35734719361075701</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>0.56019510938460604</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T22" s="9" t="s">
         <v>0</v>
@@ -31379,7 +31379,7 @@
         <v>0.40153974523166402</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W22" s="9" t="s">
         <v>0</v>
@@ -31388,7 +31388,7 @@
         <v>0.63286914228662705</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z22" s="9" t="s">
         <v>0</v>
@@ -31397,7 +31397,7 @@
         <v>0.27856604965694498</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC22" s="9" t="s">
         <v>1</v>
@@ -31415,7 +31415,7 @@
         <v>0.87961014139694804</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI22" s="9" t="s">
         <v>0</v>
@@ -31424,7 +31424,7 @@
         <v>0.18798383813865399</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL22" s="9" t="s">
         <v>0</v>
@@ -31433,7 +31433,7 @@
         <v>0.66640418298492798</v>
       </c>
       <c r="AN22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO22" s="9" t="s">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>0.52164814884452304</v>
       </c>
       <c r="AQ22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR22" s="9" t="s">
         <v>0</v>
@@ -31451,7 +31451,7 @@
         <v>0.12986499204151</v>
       </c>
       <c r="AT22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU22" s="9" t="s">
         <v>0</v>
@@ -31460,7 +31460,7 @@
         <v>0.40811042046106</v>
       </c>
       <c r="AW22" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.4">
@@ -31474,7 +31474,7 @@
         <v>0.25841287570986998</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>0</v>
@@ -31483,7 +31483,7 @@
         <v>0.25353658572650201</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>0</v>
@@ -31492,7 +31492,7 @@
         <v>0.92573809933131401</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>0</v>
@@ -31501,7 +31501,7 @@
         <v>0.66640418298492798</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>0</v>
@@ -31510,7 +31510,7 @@
         <v>0.44885982086404902</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="9" t="s">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>0.47007062640645603</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T23" s="9" t="s">
         <v>0</v>
@@ -31528,7 +31528,7 @@
         <v>0.47007062640645603</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W23" s="9" t="s">
         <v>0</v>
@@ -31537,7 +31537,7 @@
         <v>0.42144237894257303</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z23" s="9" t="s">
         <v>0</v>
@@ -31546,7 +31546,7 @@
         <v>0.221194271982253</v>
       </c>
       <c r="AB23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC23" s="9" t="s">
         <v>1</v>
@@ -31564,7 +31564,7 @@
         <v>1</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI23" s="9" t="s">
         <v>0</v>
@@ -31573,7 +31573,7 @@
         <v>0.15860607706086899</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL23" s="9" t="s">
         <v>0</v>
@@ -31582,7 +31582,7 @@
         <v>0.75308213593589601</v>
       </c>
       <c r="AN23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO23" s="9" t="s">
         <v>0</v>
@@ -31591,7 +31591,7 @@
         <v>0.63286914228662705</v>
       </c>
       <c r="AQ23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR23" s="9" t="s">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>0.32773470524562498</v>
       </c>
       <c r="AT23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU23" s="9" t="s">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>0.61637500348035901</v>
       </c>
       <c r="AW23" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.4">
@@ -31623,7 +31623,7 @@
         <v>0.105341058564677</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>0</v>
@@ -31632,7 +31632,7 @@
         <v>0.20409789310190099</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>0</v>
@@ -31641,7 +31641,7 @@
         <v>0.37589854220145302</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>0</v>
@@ -31650,7 +31650,7 @@
         <v>0.64954789825623704</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>0</v>
@@ -31659,7 +31659,7 @@
         <v>0.80671062228308998</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>0</v>
@@ -31668,7 +31668,7 @@
         <v>0.75308213593589601</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>0.88880820410961203</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W24" s="9" t="s">
         <v>0</v>
@@ -31686,7 +31686,7 @@
         <v>0.58396753420633296</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z24" s="9" t="s">
         <v>0</v>
@@ -31695,7 +31695,7 @@
         <v>0.20409789310190099</v>
       </c>
       <c r="AB24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC24" s="9" t="s">
         <v>1</v>
@@ -31713,7 +31713,7 @@
         <v>0.44885982086404902</v>
       </c>
       <c r="AH24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI24" s="9" t="s">
         <v>0</v>
@@ -31722,7 +31722,7 @@
         <v>0.15183576182655401</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL24" s="9" t="s">
         <v>0</v>
@@ -31731,7 +31731,7 @@
         <v>0.71796334377759996</v>
       </c>
       <c r="AN24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO24" s="9" t="s">
         <v>0</v>
@@ -31740,7 +31740,7 @@
         <v>0.42144237894257303</v>
       </c>
       <c r="AQ24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR24" s="9" t="s">
         <v>0</v>
@@ -31749,7 +31749,7 @@
         <v>0.74425112615591205</v>
       </c>
       <c r="AT24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU24" s="9" t="s">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>0.52164814884452304</v>
       </c>
       <c r="AW24" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.4">
@@ -31772,7 +31772,7 @@
         <v>0.38221215176158202</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>0</v>
@@ -31781,7 +31781,7 @@
         <v>0.63286914228662705</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>0</v>
@@ -31790,7 +31790,7 @@
         <v>0.441912140620631</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>0</v>
@@ -31799,7 +31799,7 @@
         <v>0.75308213593589601</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>0</v>
@@ -31808,7 +31808,7 @@
         <v>0.91648744599352905</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="9" t="s">
         <v>0</v>
@@ -31817,7 +31817,7 @@
         <v>0.82480461683375506</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T25" s="9" t="s">
         <v>0</v>
@@ -31826,7 +31826,7 @@
         <v>0.70927266151350798</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W25" s="9" t="s">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>0.52164814884452304</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z25" s="9" t="s">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>0.34530569744810202</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC25" s="9" t="s">
         <v>1</v>
@@ -31862,7 +31862,7 @@
         <v>0.42144237894257303</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI25" s="9" t="s">
         <v>0</v>
@@ -31871,7 +31871,7 @@
         <v>0.18798383813865399</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL25" s="9" t="s">
         <v>0</v>
@@ -31880,7 +31880,7 @@
         <v>0.38221215176158202</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO25" s="9" t="s">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0.47726203508105097</v>
       </c>
       <c r="AQ25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR25" s="9" t="s">
         <v>0</v>
@@ -31898,7 +31898,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="AT25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU25" s="9" t="s">
         <v>0</v>
@@ -31907,7 +31907,7 @@
         <v>0.70061964832883605</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.4">
@@ -31921,7 +31921,7 @@
         <v>0.23011737495822199</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>0</v>
@@ -31930,7 +31930,7 @@
         <v>0.61637500348035901</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>0</v>
@@ -31939,7 +31939,7 @@
         <v>0.25353658572650201</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>0</v>
@@ -31948,7 +31948,7 @@
         <v>0.64954789825623704</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>0</v>
@@ -31957,7 +31957,7 @@
         <v>0.84299218382095598</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="9" t="s">
         <v>0</v>
@@ -31966,7 +31966,7 @@
         <v>0.84299218382095598</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T26" s="9" t="s">
         <v>0</v>
@@ -31975,7 +31975,7 @@
         <v>0.53690179530487903</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W26" s="9" t="s">
         <v>0</v>
@@ -31984,7 +31984,7 @@
         <v>0.50662056950446099</v>
       </c>
       <c r="Y26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z26" s="9" t="s">
         <v>0</v>
@@ -31993,7 +31993,7 @@
         <v>0.27856604965694498</v>
       </c>
       <c r="AB26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC26" s="9" t="s">
         <v>1</v>
@@ -32011,7 +32011,7 @@
         <v>0.63286914228662705</v>
       </c>
       <c r="AH26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI26" s="9" t="s">
         <v>0</v>
@@ -32020,7 +32020,7 @@
         <v>9.1142798844292994E-2</v>
       </c>
       <c r="AK26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL26" s="9" t="s">
         <v>0</v>
@@ -32029,7 +32029,7 @@
         <v>0.29976285312958201</v>
       </c>
       <c r="AN26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO26" s="9" t="s">
         <v>0</v>
@@ -32038,7 +32038,7 @@
         <v>0.33938312065834603</v>
       </c>
       <c r="AQ26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR26" s="9" t="s">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>0.99070402972317495</v>
       </c>
       <c r="AT26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU26" s="9" t="s">
         <v>0</v>
@@ -32056,7 +32056,7 @@
         <v>0.47726203508105097</v>
       </c>
       <c r="AW26" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -32070,7 +32070,7 @@
         <v>0.239293511765585</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>0</v>
@@ -32079,7 +32079,7 @@
         <v>0.82480461683375506</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>0</v>
@@ -32088,7 +32088,7 @@
         <v>0.28376711558126</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>0</v>
@@ -32097,7 +32097,7 @@
         <v>0.61637500348035901</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>0</v>
@@ -32106,7 +32106,7 @@
         <v>0.64954789825623704</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>0</v>
@@ -32115,7 +32115,7 @@
         <v>0.97211713584173298</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="T27" s="9" t="s">
         <v>0</v>
@@ -32124,7 +32124,7 @@
         <v>0.47726203508105097</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="W27" s="9" t="s">
         <v>0</v>
@@ -32133,7 +32133,7 @@
         <v>0.70061964832883605</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Z27" s="9" t="s">
         <v>0</v>
@@ -32142,7 +32142,7 @@
         <v>0.53690179530487903</v>
       </c>
       <c r="AB27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AC27" s="9" t="s">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>7.6567810425498303E-2</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AF27" s="9" t="s">
         <v>0</v>
@@ -32160,7 +32160,7 @@
         <v>0.38221215176158202</v>
       </c>
       <c r="AH27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AI27" s="9" t="s">
         <v>0</v>
@@ -32169,7 +32169,7 @@
         <v>0.31075456042524202</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AL27" s="9" t="s">
         <v>0</v>
@@ -32178,7 +32178,7 @@
         <v>0.43502642785483803</v>
       </c>
       <c r="AN27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AO27" s="9" t="s">
         <v>0</v>
@@ -32187,7 +32187,7 @@
         <v>0.55237650526350401</v>
       </c>
       <c r="AQ27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AR27" s="9" t="s">
         <v>0</v>
@@ -32196,7 +32196,7 @@
         <v>0.73545361811717502</v>
       </c>
       <c r="AT27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AU27" s="9" t="s">
         <v>0</v>
@@ -32205,7 +32205,7 @@
         <v>0.71796334377759996</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:49" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -32360,22 +32360,22 @@
     <row r="29" spans="1:49" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B27">
     <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="N">
@@ -32503,7 +32503,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28 G28 M28 P28 S28 V28 Y28 AB28 AE28 AH28 AK28 AN28 AQ28 AT28 AW28">
+  <conditionalFormatting sqref="G28 J28 M28 P28 S28 V28 Y28 AB28 AE28 AH28 AK28 AN28 AQ28 AT28 AW28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -32513,7 +32513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28 G28 J28 M28 P28 S28 V28 Y28 AB28 AE28 AH28 AK28 AN28 AQ28 AT28 AW28">
+  <conditionalFormatting sqref="G28 D28 J28 M28 P28 S28 V28 Y28 AB28 AE28 AH28 AK28 AN28 AQ28 AT28 AW28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
